--- a/outputs/alignment-warnings.xlsx
+++ b/outputs/alignment-warnings.xlsx
@@ -638,7 +638,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3959,14 +3959,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3986,14 +3986,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4229,14 +4229,14 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4256,14 +4256,14 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4391,14 +4391,14 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4418,14 +4418,14 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4661,14 +4661,14 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4688,14 +4688,14 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Canela-Krahô</t>
+          <t>Central-Southern Timbira</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Canela-Krahô</t>
+          <t>Central-Southern Timbira</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Canela-Krahô</t>
+          <t>Central-Southern Timbira</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Canela-Krahô</t>
+          <t>Central-Southern Timbira</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Canela-Krahô</t>
+          <t>Central-Southern Timbira</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Canela-Krahô</t>
+          <t>Central-Southern Timbira</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5262,7 +5262,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>3pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role S in language: kala1400, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5309,14 +5309,14 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>3pl</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role S in language: kala1400, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7874,7 +7874,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7928,7 +7928,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8090,7 +8090,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8232,7 +8232,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>1du.excl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -8252,14 +8252,14 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -8279,14 +8279,14 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -8306,14 +8306,14 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -8333,14 +8333,14 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -8360,14 +8360,14 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -8387,14 +8387,14 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>1du.excl</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -8414,14 +8414,14 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -8441,14 +8441,14 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8556,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>1du.excl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -8576,14 +8576,14 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -8603,14 +8603,14 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -8630,14 +8630,14 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -8657,14 +8657,14 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -8684,14 +8684,14 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -8711,14 +8711,14 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>1du.excl</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -8738,14 +8738,14 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -8765,14 +8765,14 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8900,7 +8900,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8954,7 +8954,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-spec and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-generic and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-generic and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-spec and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-spec and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10034,7 +10034,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-generic and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-spec and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-generic and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10797,7 +10797,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -10817,14 +10817,14 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -10844,7 +10844,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -10905,7 +10905,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -10925,14 +10925,14 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -10952,7 +10952,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -11018,7 +11018,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -11072,7 +11072,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -11099,7 +11099,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -11180,7 +11180,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -11234,7 +11234,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -11288,7 +11288,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -11342,7 +11342,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -11369,7 +11369,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -11396,7 +11396,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Jurúna</t>
+          <t>Yudja</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11735,7 +11735,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11870,7 +11870,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11897,7 +11897,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12005,7 +12005,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12059,7 +12059,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12140,7 +12140,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12194,7 +12194,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13112,7 +13112,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13139,7 +13139,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13166,7 +13166,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13193,7 +13193,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13274,7 +13274,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13787,7 +13787,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13868,7 +13868,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13922,7 +13922,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13949,7 +13949,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13976,7 +13976,7 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14030,7 +14030,7 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14057,7 +14057,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14084,7 +14084,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14192,7 +14192,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14246,7 +14246,7 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14327,7 +14327,7 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14462,7 +14462,7 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14489,7 +14489,7 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14516,7 +14516,7 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14543,7 +14543,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14570,7 +14570,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14624,7 +14624,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14651,7 +14651,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14678,7 +14678,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14705,7 +14705,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15110,7 +15110,7 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15164,7 +15164,7 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15191,7 +15191,7 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15218,7 +15218,7 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15272,7 +15272,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15596,7 +15596,7 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15623,7 +15623,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15650,7 +15650,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16028,7 +16028,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16055,7 +16055,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16082,7 +16082,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16109,7 +16109,7 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16163,7 +16163,7 @@
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16217,7 +16217,7 @@
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16244,7 +16244,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16413,7 +16413,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -16433,14 +16433,14 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -16460,14 +16460,14 @@
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -16487,14 +16487,14 @@
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -16514,14 +16514,14 @@
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -16541,14 +16541,14 @@
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -16568,7 +16568,7 @@
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16845,7 +16845,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -16865,14 +16865,14 @@
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -16892,14 +16892,14 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -16919,14 +16919,14 @@
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -16946,14 +16946,14 @@
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -16973,14 +16973,14 @@
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -17000,14 +17000,14 @@
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -17027,14 +17027,14 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -17054,7 +17054,7 @@
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -17243,7 +17243,7 @@
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nonhum and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17270,7 +17270,7 @@
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nonhum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nonhum and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17297,7 +17297,7 @@
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nonhum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17540,7 +17540,7 @@
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17567,7 +17567,7 @@
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17621,7 +17621,7 @@
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17648,7 +17648,7 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17702,7 +17702,7 @@
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17810,7 +17810,7 @@
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17864,7 +17864,7 @@
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17891,7 +17891,7 @@
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17945,7 +17945,7 @@
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17972,7 +17972,7 @@
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18188,7 +18188,7 @@
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18215,7 +18215,7 @@
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18242,7 +18242,7 @@
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18269,7 +18269,7 @@
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18296,7 +18296,7 @@
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18323,7 +18323,7 @@
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18728,7 +18728,7 @@
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18782,7 +18782,7 @@
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18809,7 +18809,7 @@
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18836,7 +18836,7 @@
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18863,7 +18863,7 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18890,7 +18890,7 @@
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18917,7 +18917,7 @@
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18944,7 +18944,7 @@
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18971,7 +18971,7 @@
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18998,7 +18998,7 @@
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19025,7 +19025,7 @@
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19052,7 +19052,7 @@
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19079,14 +19079,14 @@
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -19106,14 +19106,14 @@
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -19133,14 +19133,14 @@
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -19160,14 +19160,14 @@
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -19187,14 +19187,14 @@
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -19214,14 +19214,14 @@
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -19241,7 +19241,7 @@
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -19295,7 +19295,7 @@
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19322,7 +19322,7 @@
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19376,7 +19376,7 @@
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19403,7 +19403,7 @@
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19754,7 +19754,7 @@
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19781,7 +19781,7 @@
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19808,7 +19808,7 @@
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19835,7 +19835,7 @@
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19862,7 +19862,7 @@
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19889,7 +19889,7 @@
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19916,7 +19916,7 @@
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19943,7 +19943,7 @@
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19970,7 +19970,7 @@
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19997,7 +19997,7 @@
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20024,7 +20024,7 @@
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20051,7 +20051,7 @@
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20078,7 +20078,7 @@
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20105,7 +20105,7 @@
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20132,7 @@
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20159,7 +20159,7 @@
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20186,7 +20186,7 @@
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20213,7 +20213,7 @@
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20240,7 +20240,7 @@
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20267,7 +20267,7 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20294,7 +20294,7 @@
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20321,7 +20321,7 @@
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20348,7 +20348,7 @@
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20375,7 +20375,7 @@
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20429,7 +20429,7 @@
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20456,7 +20456,7 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20483,7 +20483,7 @@
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20510,7 +20510,7 @@
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20564,7 +20564,7 @@
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20618,7 +20618,7 @@
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20645,7 +20645,7 @@
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20699,7 +20699,7 @@
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20726,7 +20726,7 @@
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20780,7 +20780,7 @@
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -20807,7 +20807,7 @@
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -20834,7 +20834,7 @@
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -20861,7 +20861,7 @@
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20888,7 +20888,7 @@
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20942,7 +20942,7 @@
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20969,7 +20969,7 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -20996,7 +20996,7 @@
       </c>
       <c r="E762" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21023,7 +21023,7 @@
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21050,7 +21050,7 @@
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21077,7 +21077,7 @@
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21104,7 +21104,7 @@
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21131,14 +21131,14 @@
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -21158,14 +21158,14 @@
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -21185,14 +21185,14 @@
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -21212,7 +21212,7 @@
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -21246,7 +21246,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -21266,7 +21266,7 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21293,7 +21293,7 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21320,7 +21320,7 @@
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21347,7 +21347,7 @@
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21401,14 +21401,14 @@
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -21455,7 +21455,7 @@
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21489,7 +21489,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -21509,7 +21509,7 @@
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21536,7 +21536,7 @@
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21563,7 +21563,7 @@
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21590,7 +21590,7 @@
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21617,7 +21617,7 @@
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21644,7 +21644,7 @@
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21671,7 +21671,7 @@
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21698,7 +21698,7 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21725,7 +21725,7 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21752,7 +21752,7 @@
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21779,7 +21779,7 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21806,7 +21806,7 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21833,7 +21833,7 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21860,7 +21860,7 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21887,7 +21887,7 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21914,7 +21914,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21941,7 +21941,7 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -22184,7 +22184,7 @@
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22211,7 +22211,7 @@
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22292,7 +22292,7 @@
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22508,7 +22508,7 @@
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22535,14 +22535,14 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -22562,14 +22562,14 @@
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -22589,14 +22589,14 @@
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -22616,7 +22616,7 @@
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22643,7 +22643,7 @@
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22670,14 +22670,14 @@
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -22697,14 +22697,14 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -22724,7 +22724,7 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22751,14 +22751,14 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -22778,14 +22778,14 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -22805,14 +22805,14 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -22859,7 +22859,7 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22886,14 +22886,14 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -22913,14 +22913,14 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -22940,14 +22940,14 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -22967,7 +22967,7 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22994,7 +22994,7 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -23021,14 +23021,14 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -23048,14 +23048,14 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -23075,7 +23075,7 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -23102,14 +23102,14 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -23129,14 +23129,14 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -23156,14 +23156,14 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -24533,7 +24533,7 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24560,7 +24560,7 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24587,7 +24587,7 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24614,7 +24614,7 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24641,7 +24641,7 @@
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24749,7 +24749,7 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24776,7 +24776,7 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24803,7 +24803,7 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24830,7 +24830,7 @@
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24857,7 +24857,7 @@
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25262,7 +25262,7 @@
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25289,7 +25289,7 @@
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25316,7 +25316,7 @@
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25343,7 +25343,7 @@
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25370,7 +25370,7 @@
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25451,7 +25451,7 @@
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25478,7 +25478,7 @@
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25532,7 +25532,7 @@
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25559,7 +25559,7 @@
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25586,7 +25586,7 @@
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25667,7 +25667,7 @@
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -26180,7 +26180,7 @@
       </c>
       <c r="E954" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26207,7 +26207,7 @@
       </c>
       <c r="E955" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26234,7 +26234,7 @@
       </c>
       <c r="E956" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26261,7 +26261,7 @@
       </c>
       <c r="E957" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26342,7 +26342,7 @@
       </c>
       <c r="E960" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26369,7 +26369,7 @@
       </c>
       <c r="E961" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26396,7 +26396,7 @@
       </c>
       <c r="E962" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26423,7 +26423,7 @@
       </c>
       <c r="E963" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26774,7 +26774,7 @@
       </c>
       <c r="E976" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26801,7 +26801,7 @@
       </c>
       <c r="E977" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26828,7 +26828,7 @@
       </c>
       <c r="E978" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26855,7 +26855,7 @@
       </c>
       <c r="E979" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26882,7 +26882,7 @@
       </c>
       <c r="E980" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26909,7 +26909,7 @@
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26936,7 +26936,7 @@
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26963,7 +26963,7 @@
       </c>
       <c r="E983" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26990,7 +26990,7 @@
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27017,7 +27017,7 @@
       </c>
       <c r="E985" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27071,7 +27071,7 @@
       </c>
       <c r="E987" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27098,7 +27098,7 @@
       </c>
       <c r="E988" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27125,7 +27125,7 @@
       </c>
       <c r="E989" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27152,7 +27152,7 @@
       </c>
       <c r="E990" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27179,7 +27179,7 @@
       </c>
       <c r="E991" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27206,7 +27206,7 @@
       </c>
       <c r="E992" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27260,7 +27260,7 @@
       </c>
       <c r="E994" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27287,7 +27287,7 @@
       </c>
       <c r="E995" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27314,7 +27314,7 @@
       </c>
       <c r="E996" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27341,7 +27341,7 @@
       </c>
       <c r="E997" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27368,7 +27368,7 @@
       </c>
       <c r="E998" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="E999" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27422,7 +27422,7 @@
       </c>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27449,7 +27449,7 @@
       </c>
       <c r="E1001" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27503,7 +27503,7 @@
       </c>
       <c r="E1003" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27530,7 +27530,7 @@
       </c>
       <c r="E1004" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27557,7 +27557,7 @@
       </c>
       <c r="E1005" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27584,7 +27584,7 @@
       </c>
       <c r="E1006" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27611,7 +27611,7 @@
       </c>
       <c r="E1007" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27638,7 +27638,7 @@
       </c>
       <c r="E1008" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27665,7 +27665,7 @@
       </c>
       <c r="E1009" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27692,7 +27692,7 @@
       </c>
       <c r="E1010" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27719,7 +27719,7 @@
       </c>
       <c r="E1011" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27746,7 +27746,7 @@
       </c>
       <c r="E1012" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27773,7 +27773,7 @@
       </c>
       <c r="E1013" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27800,7 +27800,7 @@
       </c>
       <c r="E1014" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2/3M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2/3F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27827,7 +27827,7 @@
       </c>
       <c r="E1015" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2/3F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2/3M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27854,7 +27854,7 @@
       </c>
       <c r="E1016" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2/3M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2/3F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27881,7 +27881,7 @@
       </c>
       <c r="E1017" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2/3F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2/3M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28259,7 +28259,7 @@
       </c>
       <c r="E1031" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28286,7 +28286,7 @@
       </c>
       <c r="E1032" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28313,7 +28313,7 @@
       </c>
       <c r="E1033" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28340,7 +28340,7 @@
       </c>
       <c r="E1034" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28367,7 +28367,7 @@
       </c>
       <c r="E1035" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28394,7 +28394,7 @@
       </c>
       <c r="E1036" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28421,7 +28421,7 @@
       </c>
       <c r="E1037" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28448,7 +28448,7 @@
       </c>
       <c r="E1038" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28502,7 +28502,7 @@
       </c>
       <c r="E1040" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28529,7 +28529,7 @@
       </c>
       <c r="E1041" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28556,7 +28556,7 @@
       </c>
       <c r="E1042" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28583,7 +28583,7 @@
       </c>
       <c r="E1043" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28610,7 +28610,7 @@
       </c>
       <c r="E1044" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28637,7 +28637,7 @@
       </c>
       <c r="E1045" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28664,7 +28664,7 @@
       </c>
       <c r="E1046" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28691,7 +28691,7 @@
       </c>
       <c r="E1047" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -29096,7 +29096,7 @@
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29123,7 +29123,7 @@
       </c>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-high and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29150,7 +29150,7 @@
       </c>
       <c r="E1064" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.anim.fobv and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29177,7 +29177,7 @@
       </c>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29204,7 +29204,7 @@
       </c>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim.fobv and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-high and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29231,7 +29231,7 @@
       </c>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29258,7 +29258,7 @@
       </c>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29285,7 +29285,7 @@
       </c>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.inanim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29312,7 +29312,7 @@
       </c>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.inanim and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.inanim and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29339,7 +29339,7 @@
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.inanim and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.anim.fobv and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29393,7 +29393,7 @@
       </c>
       <c r="E1073" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29420,7 +29420,7 @@
       </c>
       <c r="E1074" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim.fobv and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -30149,7 +30149,7 @@
       </c>
       <c r="E1101" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30176,7 +30176,7 @@
       </c>
       <c r="E1102" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30203,7 +30203,7 @@
       </c>
       <c r="E1103" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30230,7 +30230,7 @@
       </c>
       <c r="E1104" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30284,7 +30284,7 @@
       </c>
       <c r="E1106" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30311,7 +30311,7 @@
       </c>
       <c r="E1107" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30338,7 +30338,7 @@
       </c>
       <c r="E1108" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30365,7 +30365,7 @@
       </c>
       <c r="E1109" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30392,7 +30392,7 @@
       </c>
       <c r="E1110" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30446,7 +30446,7 @@
       </c>
       <c r="E1112" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30581,7 +30581,7 @@
       </c>
       <c r="E1117" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30608,7 +30608,7 @@
       </c>
       <c r="E1118" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30635,7 +30635,7 @@
       </c>
       <c r="E1119" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30662,7 +30662,7 @@
       </c>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30716,7 +30716,7 @@
       </c>
       <c r="E1122" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30743,7 +30743,7 @@
       </c>
       <c r="E1123" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30770,7 +30770,7 @@
       </c>
       <c r="E1124" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30797,7 +30797,7 @@
       </c>
       <c r="E1125" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30824,7 +30824,7 @@
       </c>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30878,7 +30878,7 @@
       </c>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30905,7 +30905,7 @@
       </c>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30932,7 +30932,7 @@
       </c>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30959,7 +30959,7 @@
       </c>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30986,7 +30986,7 @@
       </c>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -31040,7 +31040,7 @@
       </c>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -31175,7 +31175,7 @@
       </c>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31202,7 +31202,7 @@
       </c>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31229,7 +31229,7 @@
       </c>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31256,7 +31256,7 @@
       </c>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31283,7 +31283,7 @@
       </c>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31310,7 +31310,7 @@
       </c>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31337,7 +31337,7 @@
       </c>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31364,7 +31364,7 @@
       </c>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31472,7 +31472,7 @@
       </c>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31499,7 +31499,7 @@
       </c>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31526,7 +31526,7 @@
       </c>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31580,7 +31580,7 @@
       </c>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31607,7 +31607,7 @@
       </c>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31634,7 +31634,7 @@
       </c>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31661,7 +31661,7 @@
       </c>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31688,7 +31688,7 @@
       </c>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31769,7 +31769,7 @@
       </c>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31796,7 +31796,7 @@
       </c>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31823,7 +31823,7 @@
       </c>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31850,7 +31850,7 @@
       </c>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31931,7 +31931,7 @@
       </c>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31958,7 +31958,7 @@
       </c>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31985,7 +31985,7 @@
       </c>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32012,7 +32012,7 @@
       </c>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32039,7 +32039,7 @@
       </c>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32552,7 +32552,7 @@
       </c>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32579,7 +32579,7 @@
       </c>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32606,7 +32606,7 @@
       </c>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32633,7 +32633,7 @@
       </c>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32660,7 +32660,7 @@
       </c>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32687,7 +32687,7 @@
       </c>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32714,7 +32714,7 @@
       </c>
       <c r="E1196" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32741,7 +32741,7 @@
       </c>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32768,7 +32768,7 @@
       </c>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32795,7 +32795,7 @@
       </c>
       <c r="E1199" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32822,7 +32822,7 @@
       </c>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32849,7 +32849,7 @@
       </c>
       <c r="E1201" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32876,7 +32876,7 @@
       </c>
       <c r="E1202" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32903,7 +32903,7 @@
       </c>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32930,7 +32930,7 @@
       </c>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32957,7 +32957,7 @@
       </c>
       <c r="E1205" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32984,7 +32984,7 @@
       </c>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33011,7 +33011,7 @@
       </c>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33038,7 +33038,7 @@
       </c>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33065,7 +33065,7 @@
       </c>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33092,7 +33092,7 @@
       </c>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33119,7 +33119,7 @@
       </c>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33146,7 +33146,7 @@
       </c>
       <c r="E1212" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33173,7 +33173,7 @@
       </c>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33200,7 +33200,7 @@
       </c>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33227,7 +33227,7 @@
       </c>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33254,7 +33254,7 @@
       </c>
       <c r="E1216" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33281,7 +33281,7 @@
       </c>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33308,7 +33308,7 @@
       </c>
       <c r="E1218" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33335,7 +33335,7 @@
       </c>
       <c r="E1219" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33362,7 +33362,7 @@
       </c>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33389,7 +33389,7 @@
       </c>
       <c r="E1221" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33416,7 +33416,7 @@
       </c>
       <c r="E1222" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33443,7 +33443,7 @@
       </c>
       <c r="E1223" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33470,7 +33470,7 @@
       </c>
       <c r="E1224" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33497,7 +33497,7 @@
       </c>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33524,7 +33524,7 @@
       </c>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33551,7 +33551,7 @@
       </c>
       <c r="E1227" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33578,7 +33578,7 @@
       </c>
       <c r="E1228" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33605,7 +33605,7 @@
       </c>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33659,7 +33659,7 @@
       </c>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33686,7 +33686,7 @@
       </c>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33713,7 +33713,7 @@
       </c>
       <c r="E1233" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33740,7 +33740,7 @@
       </c>
       <c r="E1234" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33767,7 +33767,7 @@
       </c>
       <c r="E1235" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33821,7 +33821,7 @@
       </c>
       <c r="E1237" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33848,7 +33848,7 @@
       </c>
       <c r="E1238" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="E1239" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33902,7 +33902,7 @@
       </c>
       <c r="E1240" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33929,7 +33929,7 @@
       </c>
       <c r="E1241" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33983,7 +33983,7 @@
       </c>
       <c r="E1243" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34037,7 +34037,7 @@
       </c>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34064,7 +34064,7 @@
       </c>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34091,7 +34091,7 @@
       </c>
       <c r="E1247" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34118,7 +34118,7 @@
       </c>
       <c r="E1248" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34145,7 +34145,7 @@
       </c>
       <c r="E1249" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34172,7 +34172,7 @@
       </c>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34199,7 +34199,7 @@
       </c>
       <c r="E1251" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34226,7 +34226,7 @@
       </c>
       <c r="E1252" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34307,7 +34307,7 @@
       </c>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34334,7 +34334,7 @@
       </c>
       <c r="E1256" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34361,7 +34361,7 @@
       </c>
       <c r="E1257" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34388,7 +34388,7 @@
       </c>
       <c r="E1258" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34415,7 +34415,7 @@
       </c>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34442,7 +34442,7 @@
       </c>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34469,7 +34469,7 @@
       </c>
       <c r="E1261" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34496,7 +34496,7 @@
       </c>
       <c r="E1262" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34523,7 +34523,7 @@
       </c>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34550,7 +34550,7 @@
       </c>
       <c r="E1264" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34577,7 +34577,7 @@
       </c>
       <c r="E1265" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34604,7 +34604,7 @@
       </c>
       <c r="E1266" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34631,7 +34631,7 @@
       </c>
       <c r="E1267" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34658,7 +34658,7 @@
       </c>
       <c r="E1268" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34685,7 +34685,7 @@
       </c>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34712,7 +34712,7 @@
       </c>
       <c r="E1270" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34766,7 +34766,7 @@
       </c>
       <c r="E1272" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34793,7 +34793,7 @@
       </c>
       <c r="E1273" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34820,7 +34820,7 @@
       </c>
       <c r="E1274" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34847,7 +34847,7 @@
       </c>
       <c r="E1275" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34874,7 +34874,7 @@
       </c>
       <c r="E1276" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34901,7 +34901,7 @@
       </c>
       <c r="E1277" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34928,7 +34928,7 @@
       </c>
       <c r="E1278" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34955,7 +34955,7 @@
       </c>
       <c r="E1279" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35036,7 +35036,7 @@
       </c>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35063,7 +35063,7 @@
       </c>
       <c r="E1283" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35090,7 +35090,7 @@
       </c>
       <c r="E1284" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35117,7 +35117,7 @@
       </c>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35144,7 +35144,7 @@
       </c>
       <c r="E1286" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35171,7 +35171,7 @@
       </c>
       <c r="E1287" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35198,7 +35198,7 @@
       </c>
       <c r="E1288" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35225,7 +35225,7 @@
       </c>
       <c r="E1289" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35252,7 +35252,7 @@
       </c>
       <c r="E1290" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35279,7 +35279,7 @@
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35306,7 +35306,7 @@
       </c>
       <c r="E1292" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35333,7 +35333,7 @@
       </c>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35360,7 +35360,7 @@
       </c>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35387,7 +35387,7 @@
       </c>
       <c r="E1295" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35414,7 +35414,7 @@
       </c>
       <c r="E1296" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35441,7 +35441,7 @@
       </c>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35468,7 +35468,7 @@
       </c>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35495,7 +35495,7 @@
       </c>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35522,7 +35522,7 @@
       </c>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35549,7 +35549,7 @@
       </c>
       <c r="E1301" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35576,7 +35576,7 @@
       </c>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35603,7 +35603,7 @@
       </c>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35630,7 +35630,7 @@
       </c>
       <c r="E1304" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35657,7 +35657,7 @@
       </c>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35684,7 +35684,7 @@
       </c>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35711,7 +35711,7 @@
       </c>
       <c r="E1307" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35738,7 +35738,7 @@
       </c>
       <c r="E1308" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35765,7 +35765,7 @@
       </c>
       <c r="E1309" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35792,7 +35792,7 @@
       </c>
       <c r="E1310" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35819,7 +35819,7 @@
       </c>
       <c r="E1311" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35846,7 +35846,7 @@
       </c>
       <c r="E1312" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35873,7 +35873,7 @@
       </c>
       <c r="E1313" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35900,7 +35900,7 @@
       </c>
       <c r="E1314" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35927,7 +35927,7 @@
       </c>
       <c r="E1315" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -36312,7 +36312,7 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr">
@@ -36332,14 +36332,14 @@
       </c>
       <c r="E1330" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr">
@@ -36359,7 +36359,7 @@
       </c>
       <c r="E1331" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36393,7 +36393,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr">
@@ -36413,14 +36413,14 @@
       </c>
       <c r="E1333" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr">
@@ -36440,14 +36440,14 @@
       </c>
       <c r="E1334" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr">
@@ -36467,14 +36467,14 @@
       </c>
       <c r="E1335" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr">
@@ -36494,14 +36494,14 @@
       </c>
       <c r="E1336" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr">
@@ -36521,7 +36521,7 @@
       </c>
       <c r="E1337" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36555,7 +36555,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr">
@@ -36575,14 +36575,14 @@
       </c>
       <c r="E1339" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr">
@@ -36602,14 +36602,14 @@
       </c>
       <c r="E1340" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr">
@@ -36629,14 +36629,14 @@
       </c>
       <c r="E1341" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
@@ -36656,14 +36656,14 @@
       </c>
       <c r="E1342" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>3pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr">
@@ -36683,7 +36683,7 @@
       </c>
       <c r="E1343" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36710,14 +36710,14 @@
       </c>
       <c r="E1344" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>3pl</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr">
@@ -36737,7 +36737,7 @@
       </c>
       <c r="E1345" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36764,14 +36764,14 @@
       </c>
       <c r="E1346" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr">
@@ -36791,14 +36791,14 @@
       </c>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr">
@@ -36818,14 +36818,14 @@
       </c>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr">
@@ -36845,14 +36845,14 @@
       </c>
       <c r="E1349" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>3pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr">
@@ -36872,7 +36872,7 @@
       </c>
       <c r="E1350" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36899,14 +36899,14 @@
       </c>
       <c r="E1351" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>3pl</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr">
@@ -36926,7 +36926,7 @@
       </c>
       <c r="E1352" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36953,14 +36953,14 @@
       </c>
       <c r="E1353" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr">
@@ -36980,14 +36980,14 @@
       </c>
       <c r="E1354" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr">
@@ -37007,7 +37007,7 @@
       </c>
       <c r="E1355" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -37952,7 +37952,7 @@
       </c>
       <c r="E1390" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -37979,7 +37979,7 @@
       </c>
       <c r="E1391" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38006,7 +38006,7 @@
       </c>
       <c r="E1392" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38033,7 +38033,7 @@
       </c>
       <c r="E1393" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38229,7 +38229,7 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr">
@@ -38249,14 +38249,14 @@
       </c>
       <c r="E1401" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
@@ -38276,7 +38276,7 @@
       </c>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38303,14 +38303,14 @@
       </c>
       <c r="E1403" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr">
@@ -38330,14 +38330,14 @@
       </c>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1405" t="inlineStr">
@@ -38357,7 +38357,7 @@
       </c>
       <c r="E1405" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38391,7 +38391,7 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
@@ -38411,14 +38411,14 @@
       </c>
       <c r="E1407" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
@@ -38438,7 +38438,7 @@
       </c>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38465,14 +38465,14 @@
       </c>
       <c r="E1409" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
@@ -38492,14 +38492,14 @@
       </c>
       <c r="E1410" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr">
@@ -38519,7 +38519,7 @@
       </c>
       <c r="E1411" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38553,7 +38553,7 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
@@ -38573,14 +38573,14 @@
       </c>
       <c r="E1413" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
@@ -38600,7 +38600,7 @@
       </c>
       <c r="E1414" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38627,14 +38627,14 @@
       </c>
       <c r="E1415" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr">
@@ -38654,14 +38654,14 @@
       </c>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr">
@@ -38681,7 +38681,7 @@
       </c>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38735,7 +38735,7 @@
       </c>
       <c r="E1419" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38762,7 +38762,7 @@
       </c>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38816,7 +38816,7 @@
       </c>
       <c r="E1422" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38843,7 +38843,7 @@
       </c>
       <c r="E1423" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39012,7 +39012,7 @@
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
@@ -39032,7 +39032,7 @@
       </c>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39059,14 +39059,14 @@
       </c>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
@@ -39086,7 +39086,7 @@
       </c>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39174,7 +39174,7 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
@@ -39194,7 +39194,7 @@
       </c>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39221,14 +39221,14 @@
       </c>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
@@ -39248,7 +39248,7 @@
       </c>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39356,7 +39356,7 @@
       </c>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39383,7 +39383,7 @@
       </c>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39410,7 +39410,7 @@
       </c>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39437,7 +39437,7 @@
       </c>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39491,7 +39491,7 @@
       </c>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39518,7 +39518,7 @@
       </c>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39545,7 +39545,7 @@
       </c>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39572,7 +39572,7 @@
       </c>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39599,7 +39599,7 @@
       </c>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39653,7 +39653,7 @@
       </c>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39822,7 +39822,7 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
@@ -39842,14 +39842,14 @@
       </c>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
@@ -39869,7 +39869,7 @@
       </c>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39930,7 +39930,7 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
@@ -39950,14 +39950,14 @@
       </c>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
@@ -39977,14 +39977,14 @@
       </c>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
@@ -40004,14 +40004,14 @@
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
@@ -40031,7 +40031,7 @@
       </c>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40092,7 +40092,7 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
@@ -40112,14 +40112,14 @@
       </c>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
@@ -40139,7 +40139,7 @@
       </c>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40794,7 +40794,7 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
@@ -40814,14 +40814,14 @@
       </c>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
@@ -40841,7 +40841,7 @@
       </c>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40868,7 +40868,7 @@
       </c>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40895,14 +40895,14 @@
       </c>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
@@ -40922,14 +40922,14 @@
       </c>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
@@ -40949,14 +40949,14 @@
       </c>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -40976,14 +40976,14 @@
       </c>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -41003,7 +41003,7 @@
       </c>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41030,7 +41030,7 @@
       </c>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41057,14 +41057,14 @@
       </c>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -41084,14 +41084,14 @@
       </c>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
@@ -41111,14 +41111,14 @@
       </c>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
@@ -41138,14 +41138,14 @@
       </c>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
@@ -41165,14 +41165,14 @@
       </c>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
@@ -41192,14 +41192,14 @@
       </c>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
@@ -41219,14 +41219,14 @@
       </c>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
@@ -41246,7 +41246,7 @@
       </c>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41273,14 +41273,14 @@
       </c>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.inanim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
@@ -41300,7 +41300,7 @@
       </c>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41327,14 +41327,14 @@
       </c>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.inanim and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
@@ -41354,14 +41354,14 @@
       </c>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
@@ -41381,7 +41381,7 @@
       </c>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41408,7 +41408,7 @@
       </c>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassD and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41435,7 +41435,7 @@
       </c>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41462,7 +41462,7 @@
       </c>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassD and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41489,14 +41489,14 @@
       </c>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
@@ -41516,14 +41516,14 @@
       </c>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>3sg.ClassC</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
@@ -41543,14 +41543,14 @@
       </c>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
@@ -41570,14 +41570,14 @@
       </c>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
@@ -41597,14 +41597,14 @@
       </c>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
@@ -41624,14 +41624,14 @@
       </c>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>3sg.ClassC</t>
+          <t>3pl.ClassC</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
@@ -41651,7 +41651,7 @@
       </c>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41678,14 +41678,14 @@
       </c>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
@@ -41705,14 +41705,14 @@
       </c>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
@@ -41732,14 +41732,14 @@
       </c>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>3pl.ClassA</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
@@ -41759,14 +41759,14 @@
       </c>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassA and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
@@ -41786,7 +41786,7 @@
       </c>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41813,14 +41813,14 @@
       </c>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
@@ -41840,14 +41840,14 @@
       </c>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>3pl.ClassC</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
@@ -41867,14 +41867,14 @@
       </c>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>3pl.ClassA</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
@@ -41894,14 +41894,14 @@
       </c>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassA and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>3sg.ClassB</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
@@ -41921,14 +41921,14 @@
       </c>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassB and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
@@ -41948,14 +41948,14 @@
       </c>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
@@ -41975,14 +41975,14 @@
       </c>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>3sg.ClassB</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
@@ -42002,14 +42002,14 @@
       </c>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassB and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
@@ -42029,7 +42029,7 @@
       </c>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42056,7 +42056,7 @@
       </c>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassB and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42083,7 +42083,7 @@
       </c>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassC and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42110,7 +42110,7 @@
       </c>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42137,7 +42137,7 @@
       </c>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassD and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42164,7 +42164,7 @@
       </c>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42191,7 +42191,7 @@
       </c>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassB and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42218,7 +42218,7 @@
       </c>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42245,7 +42245,7 @@
       </c>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42272,7 +42272,7 @@
       </c>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassB and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassA and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42299,7 +42299,7 @@
       </c>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42326,7 +42326,7 @@
       </c>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassD and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42353,7 +42353,7 @@
       </c>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassD and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42380,7 +42380,7 @@
       </c>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassC and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42407,7 +42407,7 @@
       </c>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42434,7 +42434,7 @@
       </c>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassA and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42461,7 +42461,7 @@
       </c>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42488,7 +42488,7 @@
       </c>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassD and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassB and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42515,14 +42515,14 @@
       </c>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
@@ -42542,14 +42542,14 @@
       </c>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
@@ -42569,14 +42569,14 @@
       </c>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
@@ -42596,14 +42596,14 @@
       </c>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
@@ -42623,14 +42623,14 @@
       </c>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
@@ -42650,14 +42650,14 @@
       </c>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
@@ -42677,14 +42677,14 @@
       </c>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
@@ -42704,14 +42704,14 @@
       </c>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
@@ -42731,7 +42731,7 @@
       </c>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42792,7 +42792,7 @@
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
@@ -42812,14 +42812,14 @@
       </c>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
@@ -42839,7 +42839,7 @@
       </c>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42866,7 +42866,7 @@
       </c>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42893,14 +42893,14 @@
       </c>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
@@ -42920,14 +42920,14 @@
       </c>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
@@ -42947,14 +42947,14 @@
       </c>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
@@ -42974,14 +42974,14 @@
       </c>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
@@ -43001,14 +43001,14 @@
       </c>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
@@ -43028,14 +43028,14 @@
       </c>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
@@ -43055,14 +43055,14 @@
       </c>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
@@ -43082,14 +43082,14 @@
       </c>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
@@ -43109,7 +43109,7 @@
       </c>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -43136,7 +43136,7 @@
       </c>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43163,14 +43163,14 @@
       </c>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
@@ -43190,14 +43190,14 @@
       </c>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
@@ -43217,7 +43217,7 @@
       </c>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -43244,7 +43244,7 @@
       </c>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43271,7 +43271,7 @@
       </c>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43298,7 +43298,7 @@
       </c>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43325,7 +43325,7 @@
       </c>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43352,7 +43352,7 @@
       </c>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43379,7 +43379,7 @@
       </c>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43406,7 +43406,7 @@
       </c>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43433,7 +43433,7 @@
       </c>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43460,7 +43460,7 @@
       </c>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43487,7 +43487,7 @@
       </c>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43514,14 +43514,14 @@
       </c>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
@@ -43541,14 +43541,14 @@
       </c>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
@@ -43568,14 +43568,14 @@
       </c>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
@@ -43595,14 +43595,14 @@
       </c>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
@@ -43622,14 +43622,14 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
@@ -43649,14 +43649,14 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
@@ -43676,7 +43676,7 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43703,7 +43703,7 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43730,14 +43730,14 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
@@ -43757,14 +43757,14 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
@@ -43784,7 +43784,7 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43811,7 +43811,7 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43838,7 +43838,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43865,7 +43865,7 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43892,7 +43892,7 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43919,7 +43919,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43946,7 +43946,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43973,7 +43973,7 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44000,7 +44000,7 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44027,7 +44027,7 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44054,7 +44054,7 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44081,7 +44081,7 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44108,7 +44108,7 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44135,7 +44135,7 @@
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44162,7 +44162,7 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44189,7 +44189,7 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44216,7 +44216,7 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44243,7 +44243,7 @@
       </c>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44270,7 +44270,7 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44297,7 +44297,7 @@
       </c>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44324,7 +44324,7 @@
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44351,7 +44351,7 @@
       </c>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44378,7 +44378,7 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44405,7 +44405,7 @@
       </c>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44432,7 +44432,7 @@
       </c>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44459,7 +44459,7 @@
       </c>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44486,7 +44486,7 @@
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44513,7 +44513,7 @@
       </c>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44540,7 +44540,7 @@
       </c>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44567,7 +44567,7 @@
       </c>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44594,7 +44594,7 @@
       </c>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44621,7 +44621,7 @@
       </c>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44648,7 +44648,7 @@
       </c>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44675,7 +44675,7 @@
       </c>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44702,7 +44702,7 @@
       </c>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44729,7 +44729,7 @@
       </c>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44756,7 +44756,7 @@
       </c>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44783,7 +44783,7 @@
       </c>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44810,7 +44810,7 @@
       </c>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44837,7 +44837,7 @@
       </c>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44864,7 +44864,7 @@
       </c>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44891,7 +44891,7 @@
       </c>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44918,7 +44918,7 @@
       </c>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>

--- a/outputs/alignment-warnings.xlsx
+++ b/outputs/alignment-warnings.xlsx
@@ -638,7 +638,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3905,14 +3905,14 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3932,14 +3932,14 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3959,14 +3959,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3986,14 +3986,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4013,14 +4013,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4040,14 +4040,14 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4175,14 +4175,14 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4202,14 +4202,14 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4256,14 +4256,14 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4283,14 +4283,14 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4310,14 +4310,14 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4337,14 +4337,14 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4364,14 +4364,14 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4391,14 +4391,14 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4418,14 +4418,14 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4472,14 +4472,14 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4607,14 +4607,14 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4634,14 +4634,14 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4688,14 +4688,14 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4715,14 +4715,14 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4742,14 +4742,14 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5012,7 +5012,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7820,7 +7820,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7928,7 +7928,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8063,7 +8063,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8171,14 +8171,14 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8225,14 +8225,14 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -8252,14 +8252,14 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -8279,14 +8279,14 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -8306,14 +8306,14 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>1du.excl</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -8333,14 +8333,14 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -8360,14 +8360,14 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -8387,14 +8387,14 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -8414,14 +8414,14 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>1du.excl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8468,14 +8468,14 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -8495,14 +8495,14 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8549,14 +8549,14 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -8576,14 +8576,14 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -8603,14 +8603,14 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -8630,14 +8630,14 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>1du.excl</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -8657,14 +8657,14 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -8684,14 +8684,14 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -8711,14 +8711,14 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -8738,14 +8738,14 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>1du.excl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8792,14 +8792,14 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8900,7 +8900,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8954,7 +8954,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-spec and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-generic and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-generic and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-spec and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-generic and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-generic and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10034,7 +10034,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-spec and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-spec and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10223,7 +10223,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10250,7 +10250,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10277,7 +10277,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10304,7 +10304,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -10790,14 +10790,14 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -10817,14 +10817,14 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -10844,7 +10844,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10878,7 +10878,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -10898,14 +10898,14 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -10925,14 +10925,14 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -10952,7 +10952,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -11600,7 +11600,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11735,7 +11735,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11870,7 +11870,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11897,7 +11897,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12005,7 +12005,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12059,7 +12059,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12140,7 +12140,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12167,7 +12167,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12194,7 +12194,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13112,7 +13112,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13139,7 +13139,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13166,7 +13166,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13193,7 +13193,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13274,7 +13274,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13409,7 +13409,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13814,7 +13814,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13841,7 +13841,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14057,7 +14057,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14084,7 +14084,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14327,7 +14327,7 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14462,7 +14462,7 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14543,7 +14543,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14570,7 +14570,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14624,7 +14624,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14651,7 +14651,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14678,7 +14678,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14705,7 +14705,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14759,7 +14759,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14786,7 +14786,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15110,7 +15110,7 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15164,7 +15164,7 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15191,7 +15191,7 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15218,7 +15218,7 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16028,7 +16028,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16055,7 +16055,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16082,7 +16082,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16109,7 +16109,7 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16136,7 +16136,7 @@
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16163,7 +16163,7 @@
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16190,7 +16190,7 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16244,7 +16244,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16413,7 +16413,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -16433,14 +16433,14 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -16460,7 +16460,7 @@
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16494,7 +16494,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -16514,14 +16514,14 @@
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -16541,7 +16541,7 @@
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3fobv-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16622,7 +16622,7 @@
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3fobv-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3fobv-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16676,7 +16676,7 @@
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3fobv-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16845,7 +16845,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -16865,7 +16865,7 @@
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16926,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -16946,14 +16946,14 @@
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -16973,7 +16973,7 @@
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -17034,7 +17034,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -17054,7 +17054,7 @@
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -17243,7 +17243,7 @@
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nonhum and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17270,7 +17270,7 @@
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nonhum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nonhum and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17297,7 +17297,7 @@
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nonhum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17567,7 +17567,7 @@
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17594,7 +17594,7 @@
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17648,7 +17648,7 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17675,7 +17675,7 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17756,7 +17756,7 @@
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17810,7 +17810,7 @@
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17837,7 +17837,7 @@
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17891,7 +17891,7 @@
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17918,7 +17918,7 @@
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17972,7 +17972,7 @@
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17999,7 +17999,7 @@
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18215,7 +18215,7 @@
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18242,7 +18242,7 @@
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18296,7 +18296,7 @@
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18323,7 +18323,7 @@
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18728,7 +18728,7 @@
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18782,7 +18782,7 @@
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18809,7 +18809,7 @@
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18836,7 +18836,7 @@
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18863,7 +18863,7 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18890,7 +18890,7 @@
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18917,7 +18917,7 @@
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18944,7 +18944,7 @@
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18971,7 +18971,7 @@
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18998,7 +18998,7 @@
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19025,7 +19025,7 @@
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19052,7 +19052,7 @@
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19079,14 +19079,14 @@
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -19106,7 +19106,7 @@
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -19140,7 +19140,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -19160,14 +19160,14 @@
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -19187,7 +19187,7 @@
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -19221,7 +19221,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -19241,7 +19241,7 @@
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -19754,7 +19754,7 @@
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19781,7 +19781,7 @@
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19808,7 +19808,7 @@
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19835,7 +19835,7 @@
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19862,7 +19862,7 @@
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19889,7 +19889,7 @@
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19916,7 +19916,7 @@
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19970,7 +19970,7 @@
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19997,7 +19997,7 @@
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20024,7 +20024,7 @@
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20051,7 +20051,7 @@
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20078,7 +20078,7 @@
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20105,7 +20105,7 @@
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20132,7 @@
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20159,7 +20159,7 @@
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20186,7 +20186,7 @@
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20213,7 +20213,7 @@
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20240,7 +20240,7 @@
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20267,7 +20267,7 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20294,7 +20294,7 @@
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20321,7 +20321,7 @@
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20348,7 +20348,7 @@
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20375,7 +20375,7 @@
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20429,7 +20429,7 @@
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20483,7 +20483,7 @@
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20510,7 +20510,7 @@
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20564,7 +20564,7 @@
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20618,7 +20618,7 @@
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20645,7 +20645,7 @@
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20699,7 +20699,7 @@
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20726,7 +20726,7 @@
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20861,7 +20861,7 @@
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20888,7 +20888,7 @@
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20942,7 +20942,7 @@
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21050,7 +21050,7 @@
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21077,7 +21077,7 @@
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21104,7 +21104,7 @@
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21131,14 +21131,14 @@
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -21158,14 +21158,14 @@
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -21185,7 +21185,7 @@
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21212,14 +21212,14 @@
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -21239,7 +21239,7 @@
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21293,7 +21293,7 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21320,7 +21320,7 @@
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21347,14 +21347,14 @@
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -21374,7 +21374,7 @@
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -21401,7 +21401,7 @@
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21428,7 +21428,7 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21455,14 +21455,14 @@
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -21482,7 +21482,7 @@
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21509,7 +21509,7 @@
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21536,7 +21536,7 @@
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21563,7 +21563,7 @@
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21590,14 +21590,14 @@
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -21617,7 +21617,7 @@
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -21644,7 +21644,7 @@
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21671,7 +21671,7 @@
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21698,7 +21698,7 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21725,7 +21725,7 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21752,7 +21752,7 @@
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21779,7 +21779,7 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21806,7 +21806,7 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21833,7 +21833,7 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21860,7 +21860,7 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21887,7 +21887,7 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21914,7 +21914,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21941,7 +21941,7 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -22508,14 +22508,14 @@
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -22535,7 +22535,7 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22562,7 +22562,7 @@
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22589,14 +22589,14 @@
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -22616,14 +22616,14 @@
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -22643,14 +22643,14 @@
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -22670,14 +22670,14 @@
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -22697,14 +22697,14 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -22724,7 +22724,7 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -22751,7 +22751,7 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22778,14 +22778,14 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -22805,14 +22805,14 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -22859,14 +22859,14 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -22886,7 +22886,7 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22913,7 +22913,7 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22940,14 +22940,14 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -22967,14 +22967,14 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -22994,14 +22994,14 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -23021,14 +23021,14 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -23048,14 +23048,14 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -23075,7 +23075,7 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -23102,7 +23102,7 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -23129,14 +23129,14 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -23156,14 +23156,14 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -24533,7 +24533,7 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24560,7 +24560,7 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24587,7 +24587,7 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24614,7 +24614,7 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24668,7 +24668,7 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24695,7 +24695,7 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24749,7 +24749,7 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24776,7 +24776,7 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24803,7 +24803,7 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24830,7 +24830,7 @@
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24884,7 +24884,7 @@
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24911,7 +24911,7 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25262,7 +25262,7 @@
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25289,7 +25289,7 @@
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25316,7 +25316,7 @@
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25343,7 +25343,7 @@
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25370,7 +25370,7 @@
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25451,7 +25451,7 @@
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25478,7 +25478,7 @@
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25532,7 +25532,7 @@
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25559,7 +25559,7 @@
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25586,7 +25586,7 @@
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25667,7 +25667,7 @@
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -26774,7 +26774,7 @@
       </c>
       <c r="E976" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26801,7 +26801,7 @@
       </c>
       <c r="E977" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26828,7 +26828,7 @@
       </c>
       <c r="E978" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26855,7 +26855,7 @@
       </c>
       <c r="E979" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26882,7 +26882,7 @@
       </c>
       <c r="E980" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26909,7 +26909,7 @@
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26936,7 +26936,7 @@
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26963,7 +26963,7 @@
       </c>
       <c r="E983" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26990,7 +26990,7 @@
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27017,7 +27017,7 @@
       </c>
       <c r="E985" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27044,7 +27044,7 @@
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27071,7 +27071,7 @@
       </c>
       <c r="E987" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27098,7 +27098,7 @@
       </c>
       <c r="E988" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27125,7 +27125,7 @@
       </c>
       <c r="E989" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27152,7 +27152,7 @@
       </c>
       <c r="E990" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27179,7 +27179,7 @@
       </c>
       <c r="E991" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27206,7 +27206,7 @@
       </c>
       <c r="E992" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27233,7 +27233,7 @@
       </c>
       <c r="E993" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27260,7 +27260,7 @@
       </c>
       <c r="E994" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27287,7 +27287,7 @@
       </c>
       <c r="E995" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27314,7 +27314,7 @@
       </c>
       <c r="E996" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27341,7 +27341,7 @@
       </c>
       <c r="E997" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27368,7 +27368,7 @@
       </c>
       <c r="E998" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="E999" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27422,7 +27422,7 @@
       </c>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27449,7 +27449,7 @@
       </c>
       <c r="E1001" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27476,7 +27476,7 @@
       </c>
       <c r="E1002" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27503,7 +27503,7 @@
       </c>
       <c r="E1003" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27530,7 +27530,7 @@
       </c>
       <c r="E1004" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27557,7 +27557,7 @@
       </c>
       <c r="E1005" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27584,7 +27584,7 @@
       </c>
       <c r="E1006" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27638,7 +27638,7 @@
       </c>
       <c r="E1008" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27665,7 +27665,7 @@
       </c>
       <c r="E1009" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27692,7 +27692,7 @@
       </c>
       <c r="E1010" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27719,7 +27719,7 @@
       </c>
       <c r="E1011" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27746,7 +27746,7 @@
       </c>
       <c r="E1012" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27773,7 +27773,7 @@
       </c>
       <c r="E1013" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28016,7 +28016,7 @@
       </c>
       <c r="E1022" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28043,7 +28043,7 @@
       </c>
       <c r="E1023" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28070,7 +28070,7 @@
       </c>
       <c r="E1024" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28151,7 +28151,7 @@
       </c>
       <c r="E1027" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28178,7 +28178,7 @@
       </c>
       <c r="E1028" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28205,7 +28205,7 @@
       </c>
       <c r="E1029" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28232,7 +28232,7 @@
       </c>
       <c r="E1030" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28259,7 +28259,7 @@
       </c>
       <c r="E1031" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28286,7 +28286,7 @@
       </c>
       <c r="E1032" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28313,7 +28313,7 @@
       </c>
       <c r="E1033" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28340,7 +28340,7 @@
       </c>
       <c r="E1034" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28367,7 +28367,7 @@
       </c>
       <c r="E1035" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28394,7 +28394,7 @@
       </c>
       <c r="E1036" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28421,7 +28421,7 @@
       </c>
       <c r="E1037" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28448,7 +28448,7 @@
       </c>
       <c r="E1038" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28475,7 +28475,7 @@
       </c>
       <c r="E1039" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28502,7 +28502,7 @@
       </c>
       <c r="E1040" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28529,7 +28529,7 @@
       </c>
       <c r="E1041" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28556,7 +28556,7 @@
       </c>
       <c r="E1042" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28583,7 +28583,7 @@
       </c>
       <c r="E1043" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28610,7 +28610,7 @@
       </c>
       <c r="E1044" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28637,7 +28637,7 @@
       </c>
       <c r="E1045" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28664,7 +28664,7 @@
       </c>
       <c r="E1046" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28691,7 +28691,7 @@
       </c>
       <c r="E1047" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -29096,7 +29096,7 @@
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29123,7 +29123,7 @@
       </c>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim.fobv and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29150,7 +29150,7 @@
       </c>
       <c r="E1064" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29177,7 +29177,7 @@
       </c>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-high and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29204,7 +29204,7 @@
       </c>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29231,7 +29231,7 @@
       </c>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-high and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.anim.fobv and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29258,7 +29258,7 @@
       </c>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim.fobv and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29285,7 +29285,7 @@
       </c>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29312,7 +29312,7 @@
       </c>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.inanim and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.inanim and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29339,7 +29339,7 @@
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.inanim and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29366,7 +29366,7 @@
       </c>
       <c r="E1072" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.inanim and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.inanim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29393,7 +29393,7 @@
       </c>
       <c r="E1073" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.inanim and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29420,7 +29420,7 @@
       </c>
       <c r="E1074" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.anim.fobv and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -30149,7 +30149,7 @@
       </c>
       <c r="E1101" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30176,7 +30176,7 @@
       </c>
       <c r="E1102" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30203,7 +30203,7 @@
       </c>
       <c r="E1103" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30230,7 +30230,7 @@
       </c>
       <c r="E1104" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30257,7 +30257,7 @@
       </c>
       <c r="E1105" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30284,7 +30284,7 @@
       </c>
       <c r="E1106" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30311,7 +30311,7 @@
       </c>
       <c r="E1107" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30338,7 +30338,7 @@
       </c>
       <c r="E1108" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30365,7 +30365,7 @@
       </c>
       <c r="E1109" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30392,7 +30392,7 @@
       </c>
       <c r="E1110" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30419,7 +30419,7 @@
       </c>
       <c r="E1111" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30446,7 +30446,7 @@
       </c>
       <c r="E1112" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30581,7 +30581,7 @@
       </c>
       <c r="E1117" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30608,7 +30608,7 @@
       </c>
       <c r="E1118" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30635,7 +30635,7 @@
       </c>
       <c r="E1119" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30662,7 +30662,7 @@
       </c>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30689,7 +30689,7 @@
       </c>
       <c r="E1121" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30716,7 +30716,7 @@
       </c>
       <c r="E1122" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30743,7 +30743,7 @@
       </c>
       <c r="E1123" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30770,7 +30770,7 @@
       </c>
       <c r="E1124" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30797,7 +30797,7 @@
       </c>
       <c r="E1125" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30824,7 +30824,7 @@
       </c>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30851,7 +30851,7 @@
       </c>
       <c r="E1127" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30878,7 +30878,7 @@
       </c>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30905,7 +30905,7 @@
       </c>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30932,7 +30932,7 @@
       </c>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30959,7 +30959,7 @@
       </c>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30986,7 +30986,7 @@
       </c>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -31013,7 +31013,7 @@
       </c>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -31040,7 +31040,7 @@
       </c>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -31472,7 +31472,7 @@
       </c>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31499,7 +31499,7 @@
       </c>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31526,7 +31526,7 @@
       </c>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31553,7 +31553,7 @@
       </c>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31580,7 +31580,7 @@
       </c>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31607,7 +31607,7 @@
       </c>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31634,7 +31634,7 @@
       </c>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31661,7 +31661,7 @@
       </c>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31742,7 +31742,7 @@
       </c>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31769,7 +31769,7 @@
       </c>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31796,7 +31796,7 @@
       </c>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31823,7 +31823,7 @@
       </c>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31850,7 +31850,7 @@
       </c>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31877,7 +31877,7 @@
       </c>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31904,7 +31904,7 @@
       </c>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31931,7 +31931,7 @@
       </c>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31958,7 +31958,7 @@
       </c>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31985,7 +31985,7 @@
       </c>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32012,7 +32012,7 @@
       </c>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32039,7 +32039,7 @@
       </c>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32552,7 +32552,7 @@
       </c>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32579,7 +32579,7 @@
       </c>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32606,7 +32606,7 @@
       </c>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32633,7 +32633,7 @@
       </c>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32660,7 +32660,7 @@
       </c>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32687,7 +32687,7 @@
       </c>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32714,7 +32714,7 @@
       </c>
       <c r="E1196" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32741,7 +32741,7 @@
       </c>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32768,7 +32768,7 @@
       </c>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32795,7 +32795,7 @@
       </c>
       <c r="E1199" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32822,7 +32822,7 @@
       </c>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32849,7 +32849,7 @@
       </c>
       <c r="E1201" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32876,7 +32876,7 @@
       </c>
       <c r="E1202" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32903,7 +32903,7 @@
       </c>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32930,7 +32930,7 @@
       </c>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32957,7 +32957,7 @@
       </c>
       <c r="E1205" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32984,7 +32984,7 @@
       </c>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33011,7 +33011,7 @@
       </c>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33038,7 +33038,7 @@
       </c>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33065,7 +33065,7 @@
       </c>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33092,7 +33092,7 @@
       </c>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33119,7 +33119,7 @@
       </c>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33146,7 +33146,7 @@
       </c>
       <c r="E1212" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33173,7 +33173,7 @@
       </c>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33200,7 +33200,7 @@
       </c>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33227,7 +33227,7 @@
       </c>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33254,7 +33254,7 @@
       </c>
       <c r="E1216" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33281,7 +33281,7 @@
       </c>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33308,7 +33308,7 @@
       </c>
       <c r="E1218" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33335,7 +33335,7 @@
       </c>
       <c r="E1219" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33362,7 +33362,7 @@
       </c>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33389,7 +33389,7 @@
       </c>
       <c r="E1221" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33416,7 +33416,7 @@
       </c>
       <c r="E1222" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33443,7 +33443,7 @@
       </c>
       <c r="E1223" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33470,7 +33470,7 @@
       </c>
       <c r="E1224" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33497,7 +33497,7 @@
       </c>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33524,7 +33524,7 @@
       </c>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33551,7 +33551,7 @@
       </c>
       <c r="E1227" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33578,7 +33578,7 @@
       </c>
       <c r="E1228" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33605,7 +33605,7 @@
       </c>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33632,7 +33632,7 @@
       </c>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33659,7 +33659,7 @@
       </c>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33686,7 +33686,7 @@
       </c>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33713,7 +33713,7 @@
       </c>
       <c r="E1233" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33740,7 +33740,7 @@
       </c>
       <c r="E1234" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33767,7 +33767,7 @@
       </c>
       <c r="E1235" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33794,7 +33794,7 @@
       </c>
       <c r="E1236" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33821,7 +33821,7 @@
       </c>
       <c r="E1237" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33848,7 +33848,7 @@
       </c>
       <c r="E1238" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="E1239" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33902,7 +33902,7 @@
       </c>
       <c r="E1240" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33929,7 +33929,7 @@
       </c>
       <c r="E1241" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33956,7 +33956,7 @@
       </c>
       <c r="E1242" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33983,7 +33983,7 @@
       </c>
       <c r="E1243" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34010,7 +34010,7 @@
       </c>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34037,7 +34037,7 @@
       </c>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34064,7 +34064,7 @@
       </c>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34091,7 +34091,7 @@
       </c>
       <c r="E1247" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34118,7 +34118,7 @@
       </c>
       <c r="E1248" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34145,7 +34145,7 @@
       </c>
       <c r="E1249" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34172,7 +34172,7 @@
       </c>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34199,7 +34199,7 @@
       </c>
       <c r="E1251" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34226,7 +34226,7 @@
       </c>
       <c r="E1252" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34253,7 +34253,7 @@
       </c>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34280,7 +34280,7 @@
       </c>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34307,7 +34307,7 @@
       </c>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34334,7 +34334,7 @@
       </c>
       <c r="E1256" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34361,7 +34361,7 @@
       </c>
       <c r="E1257" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34388,7 +34388,7 @@
       </c>
       <c r="E1258" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34415,7 +34415,7 @@
       </c>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34442,7 +34442,7 @@
       </c>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34469,7 +34469,7 @@
       </c>
       <c r="E1261" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34496,7 +34496,7 @@
       </c>
       <c r="E1262" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34523,7 +34523,7 @@
       </c>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34550,7 +34550,7 @@
       </c>
       <c r="E1264" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34577,7 +34577,7 @@
       </c>
       <c r="E1265" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34604,7 +34604,7 @@
       </c>
       <c r="E1266" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34631,7 +34631,7 @@
       </c>
       <c r="E1267" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34658,7 +34658,7 @@
       </c>
       <c r="E1268" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34685,7 +34685,7 @@
       </c>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34712,7 +34712,7 @@
       </c>
       <c r="E1270" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34739,7 +34739,7 @@
       </c>
       <c r="E1271" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34766,7 +34766,7 @@
       </c>
       <c r="E1272" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34793,7 +34793,7 @@
       </c>
       <c r="E1273" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34820,7 +34820,7 @@
       </c>
       <c r="E1274" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34847,7 +34847,7 @@
       </c>
       <c r="E1275" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34874,7 +34874,7 @@
       </c>
       <c r="E1276" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34901,7 +34901,7 @@
       </c>
       <c r="E1277" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34928,7 +34928,7 @@
       </c>
       <c r="E1278" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34955,7 +34955,7 @@
       </c>
       <c r="E1279" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34982,7 +34982,7 @@
       </c>
       <c r="E1280" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35009,7 +35009,7 @@
       </c>
       <c r="E1281" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35036,7 +35036,7 @@
       </c>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35063,7 +35063,7 @@
       </c>
       <c r="E1283" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35090,7 +35090,7 @@
       </c>
       <c r="E1284" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35117,7 +35117,7 @@
       </c>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35144,7 +35144,7 @@
       </c>
       <c r="E1286" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35171,7 +35171,7 @@
       </c>
       <c r="E1287" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35198,7 +35198,7 @@
       </c>
       <c r="E1288" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35225,7 +35225,7 @@
       </c>
       <c r="E1289" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35252,7 +35252,7 @@
       </c>
       <c r="E1290" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35279,7 +35279,7 @@
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35306,7 +35306,7 @@
       </c>
       <c r="E1292" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35333,7 +35333,7 @@
       </c>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35360,7 +35360,7 @@
       </c>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35387,7 +35387,7 @@
       </c>
       <c r="E1295" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35414,7 +35414,7 @@
       </c>
       <c r="E1296" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35441,7 +35441,7 @@
       </c>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35495,7 +35495,7 @@
       </c>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35522,7 +35522,7 @@
       </c>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35549,7 +35549,7 @@
       </c>
       <c r="E1301" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35576,7 +35576,7 @@
       </c>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35603,7 +35603,7 @@
       </c>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35657,7 +35657,7 @@
       </c>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35684,7 +35684,7 @@
       </c>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35711,7 +35711,7 @@
       </c>
       <c r="E1307" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35738,7 +35738,7 @@
       </c>
       <c r="E1308" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35765,7 +35765,7 @@
       </c>
       <c r="E1309" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35819,7 +35819,7 @@
       </c>
       <c r="E1311" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35846,7 +35846,7 @@
       </c>
       <c r="E1312" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35873,7 +35873,7 @@
       </c>
       <c r="E1313" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35900,7 +35900,7 @@
       </c>
       <c r="E1314" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35927,7 +35927,7 @@
       </c>
       <c r="E1315" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -36366,7 +36366,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr">
@@ -36386,7 +36386,7 @@
       </c>
       <c r="E1332" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36420,7 +36420,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr">
@@ -36440,7 +36440,7 @@
       </c>
       <c r="E1334" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36528,7 +36528,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr">
@@ -36548,7 +36548,7 @@
       </c>
       <c r="E1338" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36582,7 +36582,7 @@
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr">
@@ -36602,7 +36602,7 @@
       </c>
       <c r="E1340" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36636,7 +36636,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>3pl</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
@@ -36656,14 +36656,14 @@
       </c>
       <c r="E1342" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>3pl</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr">
@@ -36683,14 +36683,14 @@
       </c>
       <c r="E1343" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr">
@@ -36710,14 +36710,14 @@
       </c>
       <c r="E1344" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr">
@@ -36737,14 +36737,14 @@
       </c>
       <c r="E1345" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr">
@@ -36764,14 +36764,14 @@
       </c>
       <c r="E1346" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>3pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr">
@@ -36791,14 +36791,14 @@
       </c>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>3pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr">
@@ -36818,14 +36818,14 @@
       </c>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>3pl</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr">
@@ -36845,14 +36845,14 @@
       </c>
       <c r="E1349" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>3pl</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr">
@@ -36872,14 +36872,14 @@
       </c>
       <c r="E1350" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr">
@@ -36899,14 +36899,14 @@
       </c>
       <c r="E1351" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr">
@@ -36926,14 +36926,14 @@
       </c>
       <c r="E1352" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr">
@@ -36953,14 +36953,14 @@
       </c>
       <c r="E1353" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>3pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr">
@@ -36980,14 +36980,14 @@
       </c>
       <c r="E1354" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>3pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr">
@@ -37007,7 +37007,7 @@
       </c>
       <c r="E1355" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38256,7 +38256,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
@@ -38276,7 +38276,7 @@
       </c>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38303,14 +38303,14 @@
       </c>
       <c r="E1403" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr">
@@ -38330,7 +38330,7 @@
       </c>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38357,7 +38357,7 @@
       </c>
       <c r="E1405" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38418,7 +38418,7 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
@@ -38438,7 +38438,7 @@
       </c>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38465,14 +38465,14 @@
       </c>
       <c r="E1409" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
@@ -38492,7 +38492,7 @@
       </c>
       <c r="E1410" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38519,7 +38519,7 @@
       </c>
       <c r="E1411" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38580,7 +38580,7 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
@@ -38600,7 +38600,7 @@
       </c>
       <c r="E1414" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38627,14 +38627,14 @@
       </c>
       <c r="E1415" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr">
@@ -38654,7 +38654,7 @@
       </c>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38681,7 +38681,7 @@
       </c>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -39012,7 +39012,7 @@
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
@@ -39032,7 +39032,7 @@
       </c>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39059,14 +39059,14 @@
       </c>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
@@ -39086,14 +39086,14 @@
       </c>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
@@ -39113,7 +39113,7 @@
       </c>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39140,14 +39140,14 @@
       </c>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
@@ -39167,14 +39167,14 @@
       </c>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
@@ -39194,7 +39194,7 @@
       </c>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39221,14 +39221,14 @@
       </c>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
@@ -39248,14 +39248,14 @@
       </c>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
@@ -39275,7 +39275,7 @@
       </c>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39302,14 +39302,14 @@
       </c>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
@@ -39329,7 +39329,7 @@
       </c>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39356,7 +39356,7 @@
       </c>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39383,7 +39383,7 @@
       </c>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39410,7 +39410,7 @@
       </c>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39437,7 +39437,7 @@
       </c>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39464,7 +39464,7 @@
       </c>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39491,7 +39491,7 @@
       </c>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39518,7 +39518,7 @@
       </c>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39545,7 +39545,7 @@
       </c>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39572,7 +39572,7 @@
       </c>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39599,7 +39599,7 @@
       </c>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39626,7 +39626,7 @@
       </c>
       <c r="E1452" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39653,7 +39653,7 @@
       </c>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39822,7 +39822,7 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
@@ -39842,14 +39842,14 @@
       </c>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
@@ -39869,7 +39869,7 @@
       </c>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39896,14 +39896,14 @@
       </c>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
@@ -39923,7 +39923,7 @@
       </c>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39950,14 +39950,14 @@
       </c>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
@@ -39977,14 +39977,14 @@
       </c>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
@@ -40004,14 +40004,14 @@
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
@@ -40031,7 +40031,7 @@
       </c>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40058,14 +40058,14 @@
       </c>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
@@ -40085,7 +40085,7 @@
       </c>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40112,14 +40112,14 @@
       </c>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
@@ -40139,7 +40139,7 @@
       </c>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40794,7 +40794,7 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
@@ -40814,14 +40814,14 @@
       </c>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
@@ -40841,14 +40841,14 @@
       </c>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
@@ -40868,14 +40868,14 @@
       </c>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
@@ -40895,14 +40895,14 @@
       </c>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
@@ -40922,14 +40922,14 @@
       </c>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
@@ -40949,14 +40949,14 @@
       </c>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -40976,14 +40976,14 @@
       </c>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -41003,14 +41003,14 @@
       </c>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -41030,14 +41030,14 @@
       </c>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -41057,14 +41057,14 @@
       </c>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -41084,14 +41084,14 @@
       </c>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
@@ -41111,14 +41111,14 @@
       </c>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
@@ -41138,14 +41138,14 @@
       </c>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
@@ -41165,7 +41165,7 @@
       </c>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41199,7 +41199,7 @@
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
@@ -41219,14 +41219,14 @@
       </c>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
@@ -41246,14 +41246,14 @@
       </c>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.inanim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
@@ -41273,7 +41273,7 @@
       </c>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.inanim and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41307,7 +41307,7 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
@@ -41327,14 +41327,14 @@
       </c>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
@@ -41354,7 +41354,7 @@
       </c>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41408,7 +41408,7 @@
       </c>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41435,7 +41435,7 @@
       </c>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassD and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41462,7 +41462,7 @@
       </c>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassD and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41489,14 +41489,14 @@
       </c>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>3pl.ClassC</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
@@ -41516,7 +41516,7 @@
       </c>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41543,14 +41543,14 @@
       </c>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>3sg.ClassC</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
@@ -41570,7 +41570,7 @@
       </c>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du.ClassA and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41597,14 +41597,14 @@
       </c>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
@@ -41624,14 +41624,14 @@
       </c>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du.ClassB and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
@@ -41651,14 +41651,14 @@
       </c>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
@@ -41678,14 +41678,14 @@
       </c>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
@@ -41705,14 +41705,14 @@
       </c>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.ClassB and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>3pl.ClassA</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
@@ -41732,7 +41732,7 @@
       </c>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassA and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41759,14 +41759,14 @@
       </c>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
@@ -41786,14 +41786,14 @@
       </c>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
@@ -41813,14 +41813,14 @@
       </c>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du.ClassC and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
@@ -41840,14 +41840,14 @@
       </c>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
@@ -41867,14 +41867,14 @@
       </c>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>3sg.ClassB</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
@@ -41894,7 +41894,7 @@
       </c>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassB and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du.ClassD and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41921,14 +41921,14 @@
       </c>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
@@ -41948,14 +41948,14 @@
       </c>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.ClassD and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
@@ -41975,7 +41975,7 @@
       </c>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42002,14 +42002,14 @@
       </c>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>3sg.ClassB</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
@@ -42029,7 +42029,7 @@
       </c>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassB and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -42056,14 +42056,14 @@
       </c>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>3sg.ClassC</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
@@ -42083,7 +42083,7 @@
       </c>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -42110,14 +42110,14 @@
       </c>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassB and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
@@ -42137,14 +42137,14 @@
       </c>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
@@ -42164,14 +42164,14 @@
       </c>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassD and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>3pl.ClassA</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
@@ -42191,7 +42191,7 @@
       </c>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassA and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -42218,7 +42218,7 @@
       </c>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassB and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42245,14 +42245,14 @@
       </c>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>3pl.ClassC</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
@@ -42272,7 +42272,7 @@
       </c>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassC and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -42299,14 +42299,14 @@
       </c>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
@@ -42326,14 +42326,14 @@
       </c>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassD and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
@@ -42353,14 +42353,14 @@
       </c>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
@@ -42380,14 +42380,14 @@
       </c>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
@@ -42407,14 +42407,14 @@
       </c>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
@@ -42434,14 +42434,14 @@
       </c>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
@@ -42461,14 +42461,14 @@
       </c>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassA and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
@@ -42488,14 +42488,14 @@
       </c>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
@@ -42515,7 +42515,7 @@
       </c>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -42542,7 +42542,7 @@
       </c>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42569,7 +42569,7 @@
       </c>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42596,7 +42596,7 @@
       </c>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42623,7 +42623,7 @@
       </c>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42650,7 +42650,7 @@
       </c>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42677,14 +42677,14 @@
       </c>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
@@ -42704,14 +42704,14 @@
       </c>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
@@ -42731,14 +42731,14 @@
       </c>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
@@ -42758,14 +42758,14 @@
       </c>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
@@ -42785,14 +42785,14 @@
       </c>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
@@ -42812,14 +42812,14 @@
       </c>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
@@ -42839,14 +42839,14 @@
       </c>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
@@ -42866,14 +42866,14 @@
       </c>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
@@ -42893,14 +42893,14 @@
       </c>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
@@ -42920,14 +42920,14 @@
       </c>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
@@ -42947,7 +42947,7 @@
       </c>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -42974,7 +42974,7 @@
       </c>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43001,7 +43001,7 @@
       </c>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43028,7 +43028,7 @@
       </c>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43055,7 +43055,7 @@
       </c>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43082,7 +43082,7 @@
       </c>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43109,7 +43109,7 @@
       </c>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43136,7 +43136,7 @@
       </c>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43190,7 +43190,7 @@
       </c>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43217,14 +43217,14 @@
       </c>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
@@ -43244,14 +43244,14 @@
       </c>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
@@ -43271,7 +43271,7 @@
       </c>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -43298,7 +43298,7 @@
       </c>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43325,14 +43325,14 @@
       </c>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
@@ -43352,14 +43352,14 @@
       </c>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
@@ -43379,14 +43379,14 @@
       </c>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
@@ -43406,14 +43406,14 @@
       </c>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
@@ -43433,14 +43433,14 @@
       </c>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
@@ -43460,14 +43460,14 @@
       </c>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
@@ -43487,7 +43487,7 @@
       </c>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -43514,7 +43514,7 @@
       </c>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43541,7 +43541,7 @@
       </c>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43568,14 +43568,14 @@
       </c>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
@@ -43595,14 +43595,14 @@
       </c>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
@@ -43622,14 +43622,14 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
@@ -43649,14 +43649,14 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
@@ -43676,14 +43676,14 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
@@ -43703,14 +43703,14 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
@@ -43730,14 +43730,14 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
@@ -43757,14 +43757,14 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
@@ -43784,7 +43784,7 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43811,7 +43811,7 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43838,7 +43838,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43865,7 +43865,7 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43892,7 +43892,7 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43919,7 +43919,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43946,7 +43946,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43973,7 +43973,7 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44000,7 +44000,7 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44027,7 +44027,7 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44054,7 +44054,7 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44081,7 +44081,7 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44108,7 +44108,7 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44135,7 +44135,7 @@
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44162,7 +44162,7 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44189,7 +44189,7 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44216,7 +44216,7 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44270,7 +44270,7 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44297,7 +44297,7 @@
       </c>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44324,7 +44324,7 @@
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44351,7 +44351,7 @@
       </c>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44378,7 +44378,7 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44405,7 +44405,7 @@
       </c>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44432,7 +44432,7 @@
       </c>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44486,7 +44486,7 @@
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44513,7 +44513,7 @@
       </c>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44540,7 +44540,7 @@
       </c>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44567,7 +44567,7 @@
       </c>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44594,7 +44594,7 @@
       </c>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44621,7 +44621,7 @@
       </c>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44648,7 +44648,7 @@
       </c>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44702,7 +44702,7 @@
       </c>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44729,7 +44729,7 @@
       </c>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44756,7 +44756,7 @@
       </c>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44783,7 +44783,7 @@
       </c>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44810,7 +44810,7 @@
       </c>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44837,7 +44837,7 @@
       </c>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44864,7 +44864,7 @@
       </c>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44918,7 +44918,7 @@
       </c>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>

--- a/outputs/alignment-warnings.xlsx
+++ b/outputs/alignment-warnings.xlsx
@@ -638,7 +638,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3905,14 +3905,14 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3932,14 +3932,14 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3959,14 +3959,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3986,14 +3986,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4013,14 +4013,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4202,14 +4202,14 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4229,14 +4229,14 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4256,14 +4256,14 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4283,14 +4283,14 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4364,14 +4364,14 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4391,14 +4391,14 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4418,14 +4418,14 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4634,14 +4634,14 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4661,14 +4661,14 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4688,14 +4688,14 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4715,14 +4715,14 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -5262,7 +5262,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>3pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role S in language: kala1400, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5309,14 +5309,14 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>3pl</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role S in language: kala1400, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7928,7 +7928,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8009,7 +8009,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8171,14 +8171,14 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -8198,14 +8198,14 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>1du.excl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -8225,14 +8225,14 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -8252,7 +8252,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8279,14 +8279,14 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -8306,14 +8306,14 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>1du.excl</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -8333,14 +8333,14 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8387,14 +8387,14 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8441,14 +8441,14 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8502,7 +8502,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -8522,14 +8522,14 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>1du.excl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -8549,14 +8549,14 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8603,14 +8603,14 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -8630,14 +8630,14 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>1du.excl</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -8657,14 +8657,14 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -8684,7 +8684,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8711,14 +8711,14 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8765,14 +8765,14 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8954,7 +8954,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-generic and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-generic and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-spec and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-spec and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-generic and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10034,7 +10034,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-spec and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-generic and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-spec and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -10790,14 +10790,14 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -10817,14 +10817,14 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -10844,7 +10844,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -10878,7 +10878,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -10898,14 +10898,14 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -10925,14 +10925,14 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -10952,7 +10952,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -11600,7 +11600,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11735,7 +11735,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11897,7 +11897,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12005,7 +12005,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12059,7 +12059,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12167,7 +12167,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -13112,7 +13112,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13139,7 +13139,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13166,7 +13166,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13274,7 +13274,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13490,7 +13490,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13544,7 +13544,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13571,7 +13571,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13598,7 +13598,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13625,7 +13625,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13652,7 +13652,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13787,7 +13787,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13814,7 +13814,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13841,7 +13841,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13868,7 +13868,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13922,7 +13922,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13949,7 +13949,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13976,7 +13976,7 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14003,7 +14003,7 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14030,7 +14030,7 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14057,7 +14057,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14084,7 +14084,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14192,7 +14192,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14246,7 +14246,7 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14570,7 +14570,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14624,7 +14624,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14651,7 +14651,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14678,7 +14678,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14705,7 +14705,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14759,7 +14759,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14786,7 +14786,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14975,7 +14975,7 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15002,7 +15002,7 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15110,7 +15110,7 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15164,7 +15164,7 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15569,7 +15569,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15596,7 +15596,7 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15623,7 +15623,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16028,7 +16028,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16055,7 +16055,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16082,7 +16082,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16109,7 +16109,7 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16190,7 +16190,7 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16244,7 +16244,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16440,7 +16440,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -16460,14 +16460,14 @@
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -16487,7 +16487,7 @@
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -16521,7 +16521,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -16541,14 +16541,14 @@
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -16568,7 +16568,7 @@
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -16872,7 +16872,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -16892,7 +16892,7 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -16919,14 +16919,14 @@
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -16946,7 +16946,7 @@
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -16980,7 +16980,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -17000,7 +17000,7 @@
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -17027,14 +17027,14 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -17054,7 +17054,7 @@
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -17243,7 +17243,7 @@
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nonhum and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17270,7 +17270,7 @@
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nonhum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nonhum and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17297,7 +17297,7 @@
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nonhum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17891,7 +17891,7 @@
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17918,7 +17918,7 @@
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17972,7 +17972,7 @@
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17999,7 +17999,7 @@
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18728,7 +18728,7 @@
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18782,7 +18782,7 @@
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18836,7 +18836,7 @@
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18863,7 +18863,7 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18917,7 +18917,7 @@
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18971,7 +18971,7 @@
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19025,7 +19025,7 @@
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19052,7 +19052,7 @@
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19113,7 +19113,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -19133,14 +19133,14 @@
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -19160,7 +19160,7 @@
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -19194,7 +19194,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -19214,14 +19214,14 @@
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -19241,7 +19241,7 @@
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -19268,7 +19268,7 @@
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19295,7 +19295,7 @@
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19322,7 +19322,7 @@
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19349,7 +19349,7 @@
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19376,7 +19376,7 @@
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19403,7 +19403,7 @@
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19754,7 +19754,7 @@
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19781,7 +19781,7 @@
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19808,7 +19808,7 @@
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19835,7 +19835,7 @@
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19862,7 +19862,7 @@
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19889,7 +19889,7 @@
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19916,7 +19916,7 @@
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19943,7 +19943,7 @@
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19970,7 +19970,7 @@
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19997,7 +19997,7 @@
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20024,7 +20024,7 @@
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20051,7 +20051,7 @@
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20078,7 +20078,7 @@
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20105,7 +20105,7 @@
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20132,7 @@
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20159,7 +20159,7 @@
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20240,7 +20240,7 @@
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20267,7 +20267,7 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20294,7 +20294,7 @@
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20321,7 +20321,7 @@
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20348,7 +20348,7 @@
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20375,7 +20375,7 @@
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20429,7 +20429,7 @@
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20456,7 +20456,7 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20483,7 +20483,7 @@
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20510,7 +20510,7 @@
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20564,7 +20564,7 @@
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20618,7 +20618,7 @@
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20645,7 +20645,7 @@
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21138,7 +21138,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -21158,14 +21158,14 @@
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -21185,14 +21185,14 @@
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -21212,14 +21212,14 @@
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -21239,7 +21239,7 @@
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21293,7 +21293,7 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21320,7 +21320,7 @@
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21347,7 +21347,7 @@
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21401,7 +21401,7 @@
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21428,7 +21428,7 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21455,7 +21455,7 @@
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21509,7 +21509,7 @@
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21536,7 +21536,7 @@
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21563,7 +21563,7 @@
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21590,7 +21590,7 @@
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21617,7 +21617,7 @@
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21644,7 +21644,7 @@
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21671,7 +21671,7 @@
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21698,7 +21698,7 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21725,7 +21725,7 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21779,7 +21779,7 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21806,7 +21806,7 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21833,7 +21833,7 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21860,7 +21860,7 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21914,7 +21914,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21941,7 +21941,7 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -22184,7 +22184,7 @@
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nF and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22238,7 +22238,7 @@
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nF and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nF and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22319,7 +22319,7 @@
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nF and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22535,14 +22535,14 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -22562,7 +22562,7 @@
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -22623,7 +22623,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -22643,14 +22643,14 @@
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -22670,7 +22670,7 @@
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22697,14 +22697,14 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -22724,7 +22724,7 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -22751,14 +22751,14 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -22778,14 +22778,14 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -22805,7 +22805,7 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22886,14 +22886,14 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -22913,7 +22913,7 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -22974,7 +22974,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -22994,14 +22994,14 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -23021,7 +23021,7 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -23048,14 +23048,14 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -23075,7 +23075,7 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -23102,14 +23102,14 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -23129,14 +23129,14 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -23156,7 +23156,7 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -23784,7 +23784,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -23804,14 +23804,14 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: nort2980, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -23831,14 +23831,14 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: nort2980, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -23858,14 +23858,14 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: nort2980, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -23885,7 +23885,7 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: nort2980, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24506,7 +24506,7 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24533,7 +24533,7 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24587,7 +24587,7 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24614,7 +24614,7 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24641,7 +24641,7 @@
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24668,7 +24668,7 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24695,7 +24695,7 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24722,7 +24722,7 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24749,7 +24749,7 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24803,7 +24803,7 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24830,7 +24830,7 @@
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24857,7 +24857,7 @@
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24884,7 +24884,7 @@
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24911,7 +24911,7 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24938,7 +24938,7 @@
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24965,7 +24965,7 @@
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24992,7 +24992,7 @@
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25019,7 +25019,7 @@
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25262,7 +25262,7 @@
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25343,7 +25343,7 @@
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25478,7 +25478,7 @@
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25559,7 +25559,7 @@
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -26045,7 +26045,7 @@
       </c>
       <c r="E949" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26072,7 +26072,7 @@
       </c>
       <c r="E950" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26099,7 +26099,7 @@
       </c>
       <c r="E951" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26126,7 +26126,7 @@
       </c>
       <c r="E952" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26153,7 +26153,7 @@
       </c>
       <c r="E953" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26180,7 +26180,7 @@
       </c>
       <c r="E954" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26207,7 +26207,7 @@
       </c>
       <c r="E955" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26234,7 +26234,7 @@
       </c>
       <c r="E956" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26261,7 +26261,7 @@
       </c>
       <c r="E957" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26288,7 +26288,7 @@
       </c>
       <c r="E958" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26315,7 +26315,7 @@
       </c>
       <c r="E959" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26342,7 +26342,7 @@
       </c>
       <c r="E960" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26693,7 +26693,7 @@
       </c>
       <c r="E973" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26720,7 +26720,7 @@
       </c>
       <c r="E974" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26747,7 +26747,7 @@
       </c>
       <c r="E975" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26774,7 +26774,7 @@
       </c>
       <c r="E976" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26801,7 +26801,7 @@
       </c>
       <c r="E977" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26828,7 +26828,7 @@
       </c>
       <c r="E978" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26882,7 +26882,7 @@
       </c>
       <c r="E980" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26909,7 +26909,7 @@
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26936,7 +26936,7 @@
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26990,7 +26990,7 @@
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27017,7 +27017,7 @@
       </c>
       <c r="E985" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27044,7 +27044,7 @@
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27071,7 +27071,7 @@
       </c>
       <c r="E987" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27098,7 +27098,7 @@
       </c>
       <c r="E988" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27125,7 +27125,7 @@
       </c>
       <c r="E989" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27152,7 +27152,7 @@
       </c>
       <c r="E990" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27179,7 +27179,7 @@
       </c>
       <c r="E991" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27233,7 +27233,7 @@
       </c>
       <c r="E993" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27287,7 +27287,7 @@
       </c>
       <c r="E995" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27314,7 +27314,7 @@
       </c>
       <c r="E996" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27341,7 +27341,7 @@
       </c>
       <c r="E997" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27368,7 +27368,7 @@
       </c>
       <c r="E998" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27422,7 +27422,7 @@
       </c>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27449,7 +27449,7 @@
       </c>
       <c r="E1001" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27476,7 +27476,7 @@
       </c>
       <c r="E1002" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27503,7 +27503,7 @@
       </c>
       <c r="E1003" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27530,7 +27530,7 @@
       </c>
       <c r="E1004" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27557,7 +27557,7 @@
       </c>
       <c r="E1005" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27584,7 +27584,7 @@
       </c>
       <c r="E1006" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27611,7 +27611,7 @@
       </c>
       <c r="E1007" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27638,7 +27638,7 @@
       </c>
       <c r="E1008" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27665,7 +27665,7 @@
       </c>
       <c r="E1009" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27881,7 +27881,7 @@
       </c>
       <c r="E1017" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27908,7 +27908,7 @@
       </c>
       <c r="E1018" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27935,7 +27935,7 @@
       </c>
       <c r="E1019" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28016,7 +28016,7 @@
       </c>
       <c r="E1022" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28043,7 +28043,7 @@
       </c>
       <c r="E1023" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28070,7 +28070,7 @@
       </c>
       <c r="E1024" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28151,7 +28151,7 @@
       </c>
       <c r="E1027" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28178,7 +28178,7 @@
       </c>
       <c r="E1028" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28205,7 +28205,7 @@
       </c>
       <c r="E1029" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28232,7 +28232,7 @@
       </c>
       <c r="E1030" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28259,7 +28259,7 @@
       </c>
       <c r="E1031" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28286,7 +28286,7 @@
       </c>
       <c r="E1032" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28340,7 +28340,7 @@
       </c>
       <c r="E1034" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28367,7 +28367,7 @@
       </c>
       <c r="E1035" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28394,7 +28394,7 @@
       </c>
       <c r="E1036" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28421,7 +28421,7 @@
       </c>
       <c r="E1037" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28448,7 +28448,7 @@
       </c>
       <c r="E1038" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28475,7 +28475,7 @@
       </c>
       <c r="E1039" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28502,7 +28502,7 @@
       </c>
       <c r="E1040" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28529,7 +28529,7 @@
       </c>
       <c r="E1041" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28583,7 +28583,7 @@
       </c>
       <c r="E1043" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28610,7 +28610,7 @@
       </c>
       <c r="E1044" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -29015,7 +29015,7 @@
       </c>
       <c r="E1059" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29042,7 +29042,7 @@
       </c>
       <c r="E1060" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-high and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.anim.fobv and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29069,7 +29069,7 @@
       </c>
       <c r="E1061" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29096,7 +29096,7 @@
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29123,7 +29123,7 @@
       </c>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-high and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29150,7 +29150,7 @@
       </c>
       <c r="E1064" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim.fobv and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29177,7 +29177,7 @@
       </c>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29204,7 +29204,7 @@
       </c>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.inanim and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.anim.fobv and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29231,7 +29231,7 @@
       </c>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29258,7 +29258,7 @@
       </c>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.inanim and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.inanim and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29285,7 +29285,7 @@
       </c>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.inanim and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29312,7 +29312,7 @@
       </c>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.inanim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29339,7 +29339,7 @@
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim.fobv and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.inanim and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -30068,7 +30068,7 @@
       </c>
       <c r="E1098" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30122,7 +30122,7 @@
       </c>
       <c r="E1100" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30149,7 +30149,7 @@
       </c>
       <c r="E1101" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30230,7 +30230,7 @@
       </c>
       <c r="E1104" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30284,7 +30284,7 @@
       </c>
       <c r="E1106" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30311,7 +30311,7 @@
       </c>
       <c r="E1107" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30500,7 +30500,7 @@
       </c>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30554,7 +30554,7 @@
       </c>
       <c r="E1116" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30581,7 +30581,7 @@
       </c>
       <c r="E1117" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30662,7 +30662,7 @@
       </c>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30716,7 +30716,7 @@
       </c>
       <c r="E1122" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30743,7 +30743,7 @@
       </c>
       <c r="E1123" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30824,7 +30824,7 @@
       </c>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30878,7 +30878,7 @@
       </c>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30905,7 +30905,7 @@
       </c>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -31094,7 +31094,7 @@
       </c>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31121,7 +31121,7 @@
       </c>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31148,7 +31148,7 @@
       </c>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31175,7 +31175,7 @@
       </c>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31202,7 +31202,7 @@
       </c>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31229,7 +31229,7 @@
       </c>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31256,7 +31256,7 @@
       </c>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31283,7 +31283,7 @@
       </c>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31391,7 +31391,7 @@
       </c>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31418,7 +31418,7 @@
       </c>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31445,7 +31445,7 @@
       </c>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31472,7 +31472,7 @@
       </c>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31499,7 +31499,7 @@
       </c>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31553,7 +31553,7 @@
       </c>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31580,7 +31580,7 @@
       </c>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31607,7 +31607,7 @@
       </c>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31634,7 +31634,7 @@
       </c>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31661,7 +31661,7 @@
       </c>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31688,7 +31688,7 @@
       </c>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31742,7 +31742,7 @@
       </c>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31769,7 +31769,7 @@
       </c>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31823,7 +31823,7 @@
       </c>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31850,7 +31850,7 @@
       </c>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31877,7 +31877,7 @@
       </c>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31904,7 +31904,7 @@
       </c>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31958,7 +31958,7 @@
       </c>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32525,7 +32525,7 @@
       </c>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32552,7 +32552,7 @@
       </c>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32579,7 +32579,7 @@
       </c>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32606,7 +32606,7 @@
       </c>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32633,7 +32633,7 @@
       </c>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32660,7 +32660,7 @@
       </c>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32687,7 +32687,7 @@
       </c>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32714,7 +32714,7 @@
       </c>
       <c r="E1196" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32741,7 +32741,7 @@
       </c>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32768,7 +32768,7 @@
       </c>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32795,7 +32795,7 @@
       </c>
       <c r="E1199" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32822,7 +32822,7 @@
       </c>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32849,7 +32849,7 @@
       </c>
       <c r="E1201" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32876,7 +32876,7 @@
       </c>
       <c r="E1202" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32903,7 +32903,7 @@
       </c>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32930,7 +32930,7 @@
       </c>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33011,7 +33011,7 @@
       </c>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33038,7 +33038,7 @@
       </c>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33065,7 +33065,7 @@
       </c>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33092,7 +33092,7 @@
       </c>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33119,7 +33119,7 @@
       </c>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33146,7 +33146,7 @@
       </c>
       <c r="E1212" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33173,7 +33173,7 @@
       </c>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33200,7 +33200,7 @@
       </c>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33227,7 +33227,7 @@
       </c>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33254,7 +33254,7 @@
       </c>
       <c r="E1216" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33281,7 +33281,7 @@
       </c>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33308,7 +33308,7 @@
       </c>
       <c r="E1218" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33335,7 +33335,7 @@
       </c>
       <c r="E1219" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33362,7 +33362,7 @@
       </c>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33389,7 +33389,7 @@
       </c>
       <c r="E1221" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33416,7 +33416,7 @@
       </c>
       <c r="E1222" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33443,7 +33443,7 @@
       </c>
       <c r="E1223" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33497,7 +33497,7 @@
       </c>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33524,7 +33524,7 @@
       </c>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33605,7 +33605,7 @@
       </c>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33659,7 +33659,7 @@
       </c>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33686,7 +33686,7 @@
       </c>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33767,7 +33767,7 @@
       </c>
       <c r="E1235" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33821,7 +33821,7 @@
       </c>
       <c r="E1237" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33848,7 +33848,7 @@
       </c>
       <c r="E1238" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33929,7 +33929,7 @@
       </c>
       <c r="E1241" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33956,7 +33956,7 @@
       </c>
       <c r="E1242" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33983,7 +33983,7 @@
       </c>
       <c r="E1243" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34010,7 +34010,7 @@
       </c>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34037,7 +34037,7 @@
       </c>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34064,7 +34064,7 @@
       </c>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34118,7 +34118,7 @@
       </c>
       <c r="E1248" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34145,7 +34145,7 @@
       </c>
       <c r="E1249" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34172,7 +34172,7 @@
       </c>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34199,7 +34199,7 @@
       </c>
       <c r="E1251" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34226,7 +34226,7 @@
       </c>
       <c r="E1252" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34253,7 +34253,7 @@
       </c>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34280,7 +34280,7 @@
       </c>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34307,7 +34307,7 @@
       </c>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34334,7 +34334,7 @@
       </c>
       <c r="E1256" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34361,7 +34361,7 @@
       </c>
       <c r="E1257" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34388,7 +34388,7 @@
       </c>
       <c r="E1258" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34415,7 +34415,7 @@
       </c>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34442,7 +34442,7 @@
       </c>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34469,7 +34469,7 @@
       </c>
       <c r="E1261" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34550,7 +34550,7 @@
       </c>
       <c r="E1264" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34577,7 +34577,7 @@
       </c>
       <c r="E1265" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34604,7 +34604,7 @@
       </c>
       <c r="E1266" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34631,7 +34631,7 @@
       </c>
       <c r="E1267" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34658,7 +34658,7 @@
       </c>
       <c r="E1268" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34685,7 +34685,7 @@
       </c>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34712,7 +34712,7 @@
       </c>
       <c r="E1270" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34739,7 +34739,7 @@
       </c>
       <c r="E1271" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34766,7 +34766,7 @@
       </c>
       <c r="E1272" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34793,7 +34793,7 @@
       </c>
       <c r="E1273" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34847,7 +34847,7 @@
       </c>
       <c r="E1275" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34874,7 +34874,7 @@
       </c>
       <c r="E1276" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34901,7 +34901,7 @@
       </c>
       <c r="E1277" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34928,7 +34928,7 @@
       </c>
       <c r="E1278" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34955,7 +34955,7 @@
       </c>
       <c r="E1279" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34982,7 +34982,7 @@
       </c>
       <c r="E1280" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35009,7 +35009,7 @@
       </c>
       <c r="E1281" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35036,7 +35036,7 @@
       </c>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35063,7 +35063,7 @@
       </c>
       <c r="E1283" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35090,7 +35090,7 @@
       </c>
       <c r="E1284" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35117,7 +35117,7 @@
       </c>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35144,7 +35144,7 @@
       </c>
       <c r="E1286" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35171,7 +35171,7 @@
       </c>
       <c r="E1287" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35198,7 +35198,7 @@
       </c>
       <c r="E1288" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35279,7 +35279,7 @@
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35306,7 +35306,7 @@
       </c>
       <c r="E1292" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35333,7 +35333,7 @@
       </c>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35360,7 +35360,7 @@
       </c>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35387,7 +35387,7 @@
       </c>
       <c r="E1295" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35414,7 +35414,7 @@
       </c>
       <c r="E1296" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35441,7 +35441,7 @@
       </c>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35468,7 +35468,7 @@
       </c>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35495,7 +35495,7 @@
       </c>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35522,7 +35522,7 @@
       </c>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35549,7 +35549,7 @@
       </c>
       <c r="E1301" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35576,7 +35576,7 @@
       </c>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35603,7 +35603,7 @@
       </c>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35630,7 +35630,7 @@
       </c>
       <c r="E1304" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35657,7 +35657,7 @@
       </c>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35684,7 +35684,7 @@
       </c>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35711,7 +35711,7 @@
       </c>
       <c r="E1307" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35738,7 +35738,7 @@
       </c>
       <c r="E1308" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35765,7 +35765,7 @@
       </c>
       <c r="E1309" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35792,7 +35792,7 @@
       </c>
       <c r="E1310" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35819,7 +35819,7 @@
       </c>
       <c r="E1311" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35846,7 +35846,7 @@
       </c>
       <c r="E1312" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -36231,7 +36231,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr">
@@ -36251,7 +36251,7 @@
       </c>
       <c r="E1327" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36285,7 +36285,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr">
@@ -36305,14 +36305,14 @@
       </c>
       <c r="E1329" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr">
@@ -36332,14 +36332,14 @@
       </c>
       <c r="E1330" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr">
@@ -36359,14 +36359,14 @@
       </c>
       <c r="E1331" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr">
@@ -36386,14 +36386,14 @@
       </c>
       <c r="E1332" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr">
@@ -36413,7 +36413,7 @@
       </c>
       <c r="E1333" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36447,7 +36447,7 @@
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr">
@@ -36467,14 +36467,14 @@
       </c>
       <c r="E1335" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr">
@@ -36494,14 +36494,14 @@
       </c>
       <c r="E1336" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr">
@@ -36521,14 +36521,14 @@
       </c>
       <c r="E1337" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr">
@@ -36548,14 +36548,14 @@
       </c>
       <c r="E1338" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr">
@@ -36575,14 +36575,14 @@
       </c>
       <c r="E1339" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr">
@@ -36602,14 +36602,14 @@
       </c>
       <c r="E1340" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr">
@@ -36629,14 +36629,14 @@
       </c>
       <c r="E1341" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
@@ -36656,7 +36656,7 @@
       </c>
       <c r="E1342" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36744,7 +36744,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr">
@@ -36764,14 +36764,14 @@
       </c>
       <c r="E1346" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr">
@@ -36791,14 +36791,14 @@
       </c>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr">
@@ -36818,14 +36818,14 @@
       </c>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr">
@@ -36845,7 +36845,7 @@
       </c>
       <c r="E1349" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38121,7 +38121,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
@@ -38141,7 +38141,7 @@
       </c>
       <c r="E1397" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38168,7 +38168,7 @@
       </c>
       <c r="E1398" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38195,14 +38195,14 @@
       </c>
       <c r="E1399" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1400" t="inlineStr">
@@ -38222,14 +38222,14 @@
       </c>
       <c r="E1400" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr">
@@ -38249,14 +38249,14 @@
       </c>
       <c r="E1401" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
@@ -38276,14 +38276,14 @@
       </c>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr">
@@ -38303,7 +38303,7 @@
       </c>
       <c r="E1403" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38330,7 +38330,7 @@
       </c>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38357,14 +38357,14 @@
       </c>
       <c r="E1405" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
@@ -38384,14 +38384,14 @@
       </c>
       <c r="E1406" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
@@ -38411,14 +38411,14 @@
       </c>
       <c r="E1407" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
@@ -38438,14 +38438,14 @@
       </c>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr">
@@ -38465,7 +38465,7 @@
       </c>
       <c r="E1409" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38492,7 +38492,7 @@
       </c>
       <c r="E1410" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38519,14 +38519,14 @@
       </c>
       <c r="E1411" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr">
@@ -38546,14 +38546,14 @@
       </c>
       <c r="E1412" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
@@ -38573,14 +38573,14 @@
       </c>
       <c r="E1413" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
@@ -38600,7 +38600,7 @@
       </c>
       <c r="E1414" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38627,7 +38627,7 @@
       </c>
       <c r="E1415" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38654,7 +38654,7 @@
       </c>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38681,7 +38681,7 @@
       </c>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38708,7 +38708,7 @@
       </c>
       <c r="E1418" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38735,7 +38735,7 @@
       </c>
       <c r="E1419" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38762,7 +38762,7 @@
       </c>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39039,7 +39039,7 @@
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
@@ -39059,14 +39059,14 @@
       </c>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
@@ -39086,7 +39086,7 @@
       </c>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39201,7 +39201,7 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
@@ -39221,14 +39221,14 @@
       </c>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
@@ -39248,7 +39248,7 @@
       </c>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39275,7 +39275,7 @@
       </c>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39329,7 +39329,7 @@
       </c>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39356,7 +39356,7 @@
       </c>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39437,7 +39437,7 @@
       </c>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39491,7 +39491,7 @@
       </c>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39518,7 +39518,7 @@
       </c>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39741,7 +39741,7 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
@@ -39761,14 +39761,14 @@
       </c>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
@@ -39788,14 +39788,14 @@
       </c>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
@@ -39815,14 +39815,14 @@
       </c>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
@@ -39842,14 +39842,14 @@
       </c>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
@@ -39869,7 +39869,7 @@
       </c>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39903,7 +39903,7 @@
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
@@ -39923,14 +39923,14 @@
       </c>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
@@ -39950,14 +39950,14 @@
       </c>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
@@ -39977,14 +39977,14 @@
       </c>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
@@ -40004,14 +40004,14 @@
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
@@ -40031,7 +40031,7 @@
       </c>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40713,7 +40713,7 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
@@ -40733,7 +40733,7 @@
       </c>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40760,7 +40760,7 @@
       </c>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40787,14 +40787,14 @@
       </c>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
@@ -40814,7 +40814,7 @@
       </c>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40875,7 +40875,7 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
@@ -40895,7 +40895,7 @@
       </c>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40922,7 +40922,7 @@
       </c>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40949,14 +40949,14 @@
       </c>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -40976,7 +40976,7 @@
       </c>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41037,7 +41037,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -41057,14 +41057,14 @@
       </c>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -41084,14 +41084,14 @@
       </c>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
@@ -41111,14 +41111,14 @@
       </c>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
@@ -41138,14 +41138,14 @@
       </c>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
@@ -41165,14 +41165,14 @@
       </c>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
@@ -41192,14 +41192,14 @@
       </c>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
@@ -41219,7 +41219,7 @@
       </c>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.inanim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41246,14 +41246,14 @@
       </c>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.inanim and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
@@ -41273,14 +41273,14 @@
       </c>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
@@ -41300,7 +41300,7 @@
       </c>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41327,7 +41327,7 @@
       </c>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41354,7 +41354,7 @@
       </c>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41415,7 +41415,7 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
@@ -41435,14 +41435,14 @@
       </c>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
@@ -41462,7 +41462,7 @@
       </c>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41489,14 +41489,14 @@
       </c>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>3pl.ClassC</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
@@ -41516,14 +41516,14 @@
       </c>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
@@ -41543,14 +41543,14 @@
       </c>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
@@ -41570,14 +41570,14 @@
       </c>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>3pl.ClassA</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
@@ -41597,14 +41597,14 @@
       </c>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassA and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
@@ -41624,14 +41624,14 @@
       </c>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
@@ -41651,14 +41651,14 @@
       </c>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>3sg.ClassB</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
@@ -41678,14 +41678,14 @@
       </c>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassB and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>3sg.ClassC</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
@@ -41705,14 +41705,14 @@
       </c>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>3sg.ClassC</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
@@ -41732,7 +41732,7 @@
       </c>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41759,14 +41759,14 @@
       </c>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>3pl.ClassA</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
@@ -41786,14 +41786,14 @@
       </c>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassA and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
@@ -41813,14 +41813,14 @@
       </c>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
@@ -41840,14 +41840,14 @@
       </c>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>3pl.ClassC</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
@@ -41867,14 +41867,14 @@
       </c>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
@@ -41894,14 +41894,14 @@
       </c>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>3sg.ClassB</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
@@ -41921,7 +41921,7 @@
       </c>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassB and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41948,7 +41948,7 @@
       </c>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41975,7 +41975,7 @@
       </c>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassC and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42002,7 +42002,7 @@
       </c>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42056,7 +42056,7 @@
       </c>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassA and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassD and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42083,7 +42083,7 @@
       </c>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42110,7 +42110,7 @@
       </c>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassD and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42137,7 +42137,7 @@
       </c>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassC and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42164,7 +42164,7 @@
       </c>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42191,7 +42191,7 @@
       </c>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassB and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42218,7 +42218,7 @@
       </c>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42245,7 +42245,7 @@
       </c>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassA and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42272,7 +42272,7 @@
       </c>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42299,7 +42299,7 @@
       </c>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassD and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42326,7 +42326,7 @@
       </c>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassB and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42353,7 +42353,7 @@
       </c>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassB and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42380,7 +42380,7 @@
       </c>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassD and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42407,7 +42407,7 @@
       </c>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassB and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42434,7 +42434,7 @@
       </c>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42603,7 +42603,7 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
@@ -42623,14 +42623,14 @@
       </c>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
@@ -42650,7 +42650,7 @@
       </c>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -42711,7 +42711,7 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
@@ -42731,14 +42731,14 @@
       </c>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
@@ -42758,14 +42758,14 @@
       </c>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
@@ -42785,14 +42785,14 @@
       </c>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
@@ -42812,7 +42812,7 @@
       </c>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -42981,7 +42981,7 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
@@ -43001,14 +43001,14 @@
       </c>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
@@ -43028,14 +43028,14 @@
       </c>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
@@ -43055,14 +43055,14 @@
       </c>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
@@ -43082,7 +43082,7 @@
       </c>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -43109,7 +43109,7 @@
       </c>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43136,14 +43136,14 @@
       </c>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
@@ -43163,14 +43163,14 @@
       </c>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
@@ -43190,14 +43190,14 @@
       </c>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
@@ -43217,14 +43217,14 @@
       </c>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
@@ -43244,7 +43244,7 @@
       </c>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -43271,7 +43271,7 @@
       </c>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43298,7 +43298,7 @@
       </c>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43325,7 +43325,7 @@
       </c>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43352,7 +43352,7 @@
       </c>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43379,7 +43379,7 @@
       </c>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43406,7 +43406,7 @@
       </c>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43433,7 +43433,7 @@
       </c>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43460,7 +43460,7 @@
       </c>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43487,14 +43487,14 @@
       </c>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
@@ -43514,14 +43514,14 @@
       </c>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
@@ -43541,14 +43541,14 @@
       </c>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
@@ -43568,14 +43568,14 @@
       </c>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
@@ -43595,14 +43595,14 @@
       </c>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
@@ -43622,14 +43622,14 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
@@ -43649,14 +43649,14 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
@@ -43676,14 +43676,14 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
@@ -43703,7 +43703,7 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43730,7 +43730,7 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43757,7 +43757,7 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43811,7 +43811,7 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43838,7 +43838,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43865,7 +43865,7 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43892,7 +43892,7 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43946,7 +43946,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43973,7 +43973,7 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44000,7 +44000,7 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44054,7 +44054,7 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44108,7 +44108,7 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44162,7 +44162,7 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44189,7 +44189,7 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44216,7 +44216,7 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44270,7 +44270,7 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44324,7 +44324,7 @@
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44378,7 +44378,7 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44405,7 +44405,7 @@
       </c>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44432,7 +44432,7 @@
       </c>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44486,7 +44486,7 @@
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44540,7 +44540,7 @@
       </c>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44594,7 +44594,7 @@
       </c>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44621,7 +44621,7 @@
       </c>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44648,7 +44648,7 @@
       </c>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44702,7 +44702,7 @@
       </c>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44756,7 +44756,7 @@
       </c>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44810,7 +44810,7 @@
       </c>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44837,7 +44837,7 @@
       </c>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>

--- a/outputs/alignment-warnings.xlsx
+++ b/outputs/alignment-warnings.xlsx
@@ -638,7 +638,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3959,14 +3959,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3986,14 +3986,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4013,14 +4013,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4040,14 +4040,14 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4094,14 +4094,14 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4121,14 +4121,14 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4148,14 +4148,14 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4175,14 +4175,14 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4202,14 +4202,14 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4283,14 +4283,14 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4310,14 +4310,14 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4391,14 +4391,14 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4418,14 +4418,14 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4472,14 +4472,14 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4499,14 +4499,14 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4526,14 +4526,14 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4553,14 +4553,14 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4580,14 +4580,14 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4607,14 +4607,14 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4634,14 +4634,14 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4715,14 +4715,14 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4742,14 +4742,14 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5012,7 +5012,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7550,7 +7550,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7820,7 +7820,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7928,7 +7928,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8009,7 +8009,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8063,7 +8063,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8252,14 +8252,14 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -8279,14 +8279,14 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1du.excl</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -8306,14 +8306,14 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>1du.excl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8394,7 +8394,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -8414,14 +8414,14 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -8441,14 +8441,14 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -8468,14 +8468,14 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8529,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -8549,7 +8549,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8576,14 +8576,14 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -8603,14 +8603,14 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1du.excl</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -8630,14 +8630,14 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>1du.excl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.excl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8718,7 +8718,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -8738,14 +8738,14 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -8765,14 +8765,14 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -8792,14 +8792,14 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8900,7 +8900,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8954,7 +8954,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9278,7 +9278,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9305,7 +9305,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9386,7 +9386,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9413,7 +9413,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-generic and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-generic and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-generic and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-spec and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-spec and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-generic and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10034,7 +10034,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-spec and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-spec and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10088,7 +10088,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10142,7 +10142,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10169,7 +10169,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10223,7 +10223,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10250,7 +10250,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10277,7 +10277,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10304,7 +10304,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10797,7 +10797,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -10817,14 +10817,14 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -10844,14 +10844,14 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10905,7 +10905,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -10925,14 +10925,14 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -10952,14 +10952,14 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -11600,7 +11600,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11735,7 +11735,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11870,7 +11870,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11897,7 +11897,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12059,7 +12059,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12140,7 +12140,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12167,7 +12167,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12194,7 +12194,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13112,7 +13112,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13139,7 +13139,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13166,7 +13166,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13274,7 +13274,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13409,7 +13409,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13436,7 +13436,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13490,7 +13490,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13544,7 +13544,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13571,7 +13571,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13598,7 +13598,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13625,7 +13625,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13652,7 +13652,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13787,7 +13787,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13814,7 +13814,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13841,7 +13841,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13868,7 +13868,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13922,7 +13922,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13949,7 +13949,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13976,7 +13976,7 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14003,7 +14003,7 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14030,7 +14030,7 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14057,7 +14057,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14192,7 +14192,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14246,7 +14246,7 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14462,7 +14462,7 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14489,7 +14489,7 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14516,7 +14516,7 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14543,7 +14543,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14570,7 +14570,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14624,7 +14624,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14651,7 +14651,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14678,7 +14678,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14705,7 +14705,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14759,7 +14759,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14786,7 +14786,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14948,7 +14948,7 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14975,7 +14975,7 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15002,7 +15002,7 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15110,7 +15110,7 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15164,7 +15164,7 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15542,7 +15542,7 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15569,7 +15569,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15596,7 +15596,7 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15623,7 +15623,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15650,7 +15650,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15677,7 +15677,7 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16055,7 +16055,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16082,7 +16082,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16109,7 +16109,7 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16136,7 +16136,7 @@
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16163,7 +16163,7 @@
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16217,7 +16217,7 @@
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16244,7 +16244,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16413,7 +16413,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -16433,7 +16433,7 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -16467,7 +16467,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -16487,14 +16487,14 @@
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -16514,7 +16514,7 @@
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -16548,7 +16548,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -16568,7 +16568,7 @@
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3fobv-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16622,7 +16622,7 @@
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3fobv-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3fobv-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16676,7 +16676,7 @@
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3fobv-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16845,7 +16845,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -16865,14 +16865,14 @@
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -16892,14 +16892,14 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -16919,14 +16919,14 @@
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -16946,14 +16946,14 @@
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -16973,14 +16973,14 @@
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -17000,14 +17000,14 @@
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -17027,14 +17027,14 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -17054,7 +17054,7 @@
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -17243,7 +17243,7 @@
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nonhum and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17270,7 +17270,7 @@
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nonhum and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nonhum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17297,7 +17297,7 @@
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nonhum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17540,7 +17540,7 @@
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17567,7 +17567,7 @@
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17594,7 +17594,7 @@
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17621,7 +17621,7 @@
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17648,7 +17648,7 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17675,7 +17675,7 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17702,7 +17702,7 @@
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17756,7 +17756,7 @@
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17810,7 +17810,7 @@
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17837,7 +17837,7 @@
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17864,7 +17864,7 @@
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17891,7 +17891,7 @@
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17918,7 +17918,7 @@
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17945,7 +17945,7 @@
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17972,7 +17972,7 @@
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17999,7 +17999,7 @@
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18188,7 +18188,7 @@
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18242,7 +18242,7 @@
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18269,7 +18269,7 @@
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18323,7 +18323,7 @@
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18728,7 +18728,7 @@
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18782,7 +18782,7 @@
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18863,7 +18863,7 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18890,7 +18890,7 @@
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18917,7 +18917,7 @@
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18944,7 +18944,7 @@
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18971,7 +18971,7 @@
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19052,7 +19052,7 @@
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19079,14 +19079,14 @@
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -19106,14 +19106,14 @@
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -19133,14 +19133,14 @@
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -19160,14 +19160,14 @@
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -19187,14 +19187,14 @@
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -19214,14 +19214,14 @@
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -19241,7 +19241,7 @@
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -19295,7 +19295,7 @@
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19322,7 +19322,7 @@
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19376,7 +19376,7 @@
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19403,7 +19403,7 @@
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19754,7 +19754,7 @@
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19781,7 +19781,7 @@
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19808,7 +19808,7 @@
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19835,7 +19835,7 @@
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19862,7 +19862,7 @@
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19889,7 +19889,7 @@
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19916,7 +19916,7 @@
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19943,7 +19943,7 @@
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19970,7 +19970,7 @@
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19997,7 +19997,7 @@
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20024,7 +20024,7 @@
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20051,7 +20051,7 @@
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20078,7 +20078,7 @@
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20105,7 +20105,7 @@
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20132,7 @@
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20159,7 +20159,7 @@
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20186,7 +20186,7 @@
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20213,7 +20213,7 @@
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20240,7 +20240,7 @@
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20267,7 +20267,7 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20294,7 +20294,7 @@
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20321,7 +20321,7 @@
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20348,7 +20348,7 @@
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20375,7 +20375,7 @@
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20429,7 +20429,7 @@
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20456,7 +20456,7 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20483,7 +20483,7 @@
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20510,7 +20510,7 @@
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20564,7 +20564,7 @@
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20618,7 +20618,7 @@
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20645,7 +20645,7 @@
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20699,7 +20699,7 @@
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20726,7 +20726,7 @@
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20780,7 +20780,7 @@
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -20807,7 +20807,7 @@
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -20834,7 +20834,7 @@
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -20861,7 +20861,7 @@
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20888,7 +20888,7 @@
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20942,7 +20942,7 @@
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20969,7 +20969,7 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -20996,7 +20996,7 @@
       </c>
       <c r="E762" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21023,7 +21023,7 @@
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21050,7 +21050,7 @@
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21077,7 +21077,7 @@
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21104,7 +21104,7 @@
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21131,14 +21131,14 @@
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -21158,14 +21158,14 @@
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -21185,14 +21185,14 @@
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -21212,14 +21212,14 @@
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -21239,7 +21239,7 @@
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21320,7 +21320,7 @@
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21347,7 +21347,7 @@
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21401,7 +21401,7 @@
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21428,7 +21428,7 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21455,7 +21455,7 @@
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21509,7 +21509,7 @@
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21563,7 +21563,7 @@
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21590,7 +21590,7 @@
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21617,7 +21617,7 @@
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21644,7 +21644,7 @@
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21671,7 +21671,7 @@
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21725,7 +21725,7 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21752,7 +21752,7 @@
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21806,7 +21806,7 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21860,7 +21860,7 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21887,7 +21887,7 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21941,7 +21941,7 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -22184,7 +22184,7 @@
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22211,7 +22211,7 @@
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22292,7 +22292,7 @@
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22508,14 +22508,14 @@
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -22535,14 +22535,14 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -22562,7 +22562,7 @@
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22589,14 +22589,14 @@
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -22616,14 +22616,14 @@
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -22643,14 +22643,14 @@
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -22670,7 +22670,7 @@
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -22697,14 +22697,14 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -22724,7 +22724,7 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22751,14 +22751,14 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -22778,7 +22778,7 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -22805,14 +22805,14 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -22859,14 +22859,14 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -22886,14 +22886,14 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -22913,7 +22913,7 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22940,14 +22940,14 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -22967,14 +22967,14 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -22994,14 +22994,14 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -23021,7 +23021,7 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -23048,14 +23048,14 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -23075,7 +23075,7 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -23102,14 +23102,14 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -23129,7 +23129,7 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -23156,14 +23156,14 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -23784,7 +23784,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -23804,14 +23804,14 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: nort2980, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -23831,14 +23831,14 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: nort2980, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -23858,14 +23858,14 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: nort2980, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -23885,7 +23885,7 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: nort2980, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -24560,7 +24560,7 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24587,7 +24587,7 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24614,7 +24614,7 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24668,7 +24668,7 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24695,7 +24695,7 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24776,7 +24776,7 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24803,7 +24803,7 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24830,7 +24830,7 @@
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24884,7 +24884,7 @@
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24911,7 +24911,7 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24938,7 +24938,7 @@
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24965,7 +24965,7 @@
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24992,7 +24992,7 @@
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25019,7 +25019,7 @@
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25262,7 +25262,7 @@
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25289,7 +25289,7 @@
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25316,7 +25316,7 @@
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25343,7 +25343,7 @@
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25397,7 +25397,7 @@
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25424,7 +25424,7 @@
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25451,7 +25451,7 @@
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25478,7 +25478,7 @@
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25532,7 +25532,7 @@
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25559,7 +25559,7 @@
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25613,7 +25613,7 @@
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25640,7 +25640,7 @@
       </c>
       <c r="E934" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25667,7 +25667,7 @@
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -26099,7 +26099,7 @@
       </c>
       <c r="E951" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26126,7 +26126,7 @@
       </c>
       <c r="E952" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26153,7 +26153,7 @@
       </c>
       <c r="E953" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26180,7 +26180,7 @@
       </c>
       <c r="E954" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26261,7 +26261,7 @@
       </c>
       <c r="E957" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26288,7 +26288,7 @@
       </c>
       <c r="E958" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26315,7 +26315,7 @@
       </c>
       <c r="E959" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26342,7 +26342,7 @@
       </c>
       <c r="E960" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26693,7 +26693,7 @@
       </c>
       <c r="E973" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26720,7 +26720,7 @@
       </c>
       <c r="E974" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26774,7 +26774,7 @@
       </c>
       <c r="E976" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26801,7 +26801,7 @@
       </c>
       <c r="E977" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26828,7 +26828,7 @@
       </c>
       <c r="E978" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26855,7 +26855,7 @@
       </c>
       <c r="E979" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26882,7 +26882,7 @@
       </c>
       <c r="E980" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26909,7 +26909,7 @@
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26990,7 +26990,7 @@
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27017,7 +27017,7 @@
       </c>
       <c r="E985" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27044,7 +27044,7 @@
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27071,7 +27071,7 @@
       </c>
       <c r="E987" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27098,7 +27098,7 @@
       </c>
       <c r="E988" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27125,7 +27125,7 @@
       </c>
       <c r="E989" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27152,7 +27152,7 @@
       </c>
       <c r="E990" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27179,7 +27179,7 @@
       </c>
       <c r="E991" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27206,7 +27206,7 @@
       </c>
       <c r="E992" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27233,7 +27233,7 @@
       </c>
       <c r="E993" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27260,7 +27260,7 @@
       </c>
       <c r="E994" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27287,7 +27287,7 @@
       </c>
       <c r="E995" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27341,7 +27341,7 @@
       </c>
       <c r="E997" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27368,7 +27368,7 @@
       </c>
       <c r="E998" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="E999" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27422,7 +27422,7 @@
       </c>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27449,7 +27449,7 @@
       </c>
       <c r="E1001" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27476,7 +27476,7 @@
       </c>
       <c r="E1002" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27503,7 +27503,7 @@
       </c>
       <c r="E1003" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27530,7 +27530,7 @@
       </c>
       <c r="E1004" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27557,7 +27557,7 @@
       </c>
       <c r="E1005" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27584,7 +27584,7 @@
       </c>
       <c r="E1006" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27638,7 +27638,7 @@
       </c>
       <c r="E1008" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27665,7 +27665,7 @@
       </c>
       <c r="E1009" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27692,7 +27692,7 @@
       </c>
       <c r="E1010" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27719,7 +27719,7 @@
       </c>
       <c r="E1011" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2/3F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2/3M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27746,7 +27746,7 @@
       </c>
       <c r="E1012" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2/3M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2/3F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27773,7 +27773,7 @@
       </c>
       <c r="E1013" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2/3F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2/3M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27800,7 +27800,7 @@
       </c>
       <c r="E1014" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2/3M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2/3F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27908,7 +27908,7 @@
       </c>
       <c r="E1018" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27935,7 +27935,7 @@
       </c>
       <c r="E1019" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27962,7 +27962,7 @@
       </c>
       <c r="E1020" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27989,7 +27989,7 @@
       </c>
       <c r="E1021" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28043,7 +28043,7 @@
       </c>
       <c r="E1023" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28070,7 +28070,7 @@
       </c>
       <c r="E1024" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28097,7 +28097,7 @@
       </c>
       <c r="E1025" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28124,7 +28124,7 @@
       </c>
       <c r="E1026" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28178,7 +28178,7 @@
       </c>
       <c r="E1028" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28232,7 +28232,7 @@
       </c>
       <c r="E1030" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28340,7 +28340,7 @@
       </c>
       <c r="E1034" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28367,7 +28367,7 @@
       </c>
       <c r="E1035" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28421,7 +28421,7 @@
       </c>
       <c r="E1037" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28475,7 +28475,7 @@
       </c>
       <c r="E1039" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28583,7 +28583,7 @@
       </c>
       <c r="E1043" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28610,7 +28610,7 @@
       </c>
       <c r="E1044" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -29015,7 +29015,7 @@
       </c>
       <c r="E1059" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29069,7 +29069,7 @@
       </c>
       <c r="E1061" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29096,7 +29096,7 @@
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-high and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29123,7 +29123,7 @@
       </c>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-high and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29150,7 +29150,7 @@
       </c>
       <c r="E1064" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29177,7 +29177,7 @@
       </c>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.inanim and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29231,7 +29231,7 @@
       </c>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29258,7 +29258,7 @@
       </c>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.inanim and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29285,7 +29285,7 @@
       </c>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.inanim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29312,7 +29312,7 @@
       </c>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.inanim and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.inanim and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29339,7 +29339,7 @@
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.inanim and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29690,7 +29690,7 @@
       </c>
       <c r="E1084" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29717,7 +29717,7 @@
       </c>
       <c r="E1085" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29744,7 +29744,7 @@
       </c>
       <c r="E1086" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29771,7 +29771,7 @@
       </c>
       <c r="E1087" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29960,7 +29960,7 @@
       </c>
       <c r="E1094" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29987,7 +29987,7 @@
       </c>
       <c r="E1095" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -30014,7 +30014,7 @@
       </c>
       <c r="E1096" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -30041,7 +30041,7 @@
       </c>
       <c r="E1097" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -30095,7 +30095,7 @@
       </c>
       <c r="E1099" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30122,7 +30122,7 @@
       </c>
       <c r="E1100" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30149,7 +30149,7 @@
       </c>
       <c r="E1101" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30176,7 +30176,7 @@
       </c>
       <c r="E1102" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30203,7 +30203,7 @@
       </c>
       <c r="E1103" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30257,7 +30257,7 @@
       </c>
       <c r="E1105" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30284,7 +30284,7 @@
       </c>
       <c r="E1106" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30311,7 +30311,7 @@
       </c>
       <c r="E1107" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30338,7 +30338,7 @@
       </c>
       <c r="E1108" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30365,7 +30365,7 @@
       </c>
       <c r="E1109" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30527,7 +30527,7 @@
       </c>
       <c r="E1115" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30554,7 +30554,7 @@
       </c>
       <c r="E1116" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30581,7 +30581,7 @@
       </c>
       <c r="E1117" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30608,7 +30608,7 @@
       </c>
       <c r="E1118" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30635,7 +30635,7 @@
       </c>
       <c r="E1119" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30689,7 +30689,7 @@
       </c>
       <c r="E1121" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30716,7 +30716,7 @@
       </c>
       <c r="E1122" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30743,7 +30743,7 @@
       </c>
       <c r="E1123" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30770,7 +30770,7 @@
       </c>
       <c r="E1124" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30797,7 +30797,7 @@
       </c>
       <c r="E1125" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30851,7 +30851,7 @@
       </c>
       <c r="E1127" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30878,7 +30878,7 @@
       </c>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30905,7 +30905,7 @@
       </c>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30932,7 +30932,7 @@
       </c>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30959,7 +30959,7 @@
       </c>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -31094,7 +31094,7 @@
       </c>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31121,7 +31121,7 @@
       </c>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31148,7 +31148,7 @@
       </c>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31175,7 +31175,7 @@
       </c>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31202,7 +31202,7 @@
       </c>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31229,7 +31229,7 @@
       </c>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31256,7 +31256,7 @@
       </c>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31283,7 +31283,7 @@
       </c>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31391,7 +31391,7 @@
       </c>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31418,7 +31418,7 @@
       </c>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31472,7 +31472,7 @@
       </c>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31499,7 +31499,7 @@
       </c>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31526,7 +31526,7 @@
       </c>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31553,7 +31553,7 @@
       </c>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31580,7 +31580,7 @@
       </c>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31607,7 +31607,7 @@
       </c>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31634,7 +31634,7 @@
       </c>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31661,7 +31661,7 @@
       </c>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31688,7 +31688,7 @@
       </c>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31742,7 +31742,7 @@
       </c>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31769,7 +31769,7 @@
       </c>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31796,7 +31796,7 @@
       </c>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31823,7 +31823,7 @@
       </c>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31850,7 +31850,7 @@
       </c>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31877,7 +31877,7 @@
       </c>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31904,7 +31904,7 @@
       </c>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31931,7 +31931,7 @@
       </c>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31958,7 +31958,7 @@
       </c>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31985,7 +31985,7 @@
       </c>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32012,7 +32012,7 @@
       </c>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32039,7 +32039,7 @@
       </c>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32066,7 +32066,7 @@
       </c>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32471,7 +32471,7 @@
       </c>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32498,7 +32498,7 @@
       </c>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32525,7 +32525,7 @@
       </c>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32552,7 +32552,7 @@
       </c>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32579,7 +32579,7 @@
       </c>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32606,7 +32606,7 @@
       </c>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32633,7 +32633,7 @@
       </c>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32660,7 +32660,7 @@
       </c>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32687,7 +32687,7 @@
       </c>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32714,7 +32714,7 @@
       </c>
       <c r="E1196" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32741,7 +32741,7 @@
       </c>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32768,7 +32768,7 @@
       </c>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32795,7 +32795,7 @@
       </c>
       <c r="E1199" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32822,7 +32822,7 @@
       </c>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32849,7 +32849,7 @@
       </c>
       <c r="E1201" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32876,7 +32876,7 @@
       </c>
       <c r="E1202" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32903,7 +32903,7 @@
       </c>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32930,7 +32930,7 @@
       </c>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32957,7 +32957,7 @@
       </c>
       <c r="E1205" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32984,7 +32984,7 @@
       </c>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33011,7 +33011,7 @@
       </c>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33038,7 +33038,7 @@
       </c>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33065,7 +33065,7 @@
       </c>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33092,7 +33092,7 @@
       </c>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33119,7 +33119,7 @@
       </c>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33146,7 +33146,7 @@
       </c>
       <c r="E1212" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33173,7 +33173,7 @@
       </c>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33200,7 +33200,7 @@
       </c>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33227,7 +33227,7 @@
       </c>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33254,7 +33254,7 @@
       </c>
       <c r="E1216" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33281,7 +33281,7 @@
       </c>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33308,7 +33308,7 @@
       </c>
       <c r="E1218" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33335,7 +33335,7 @@
       </c>
       <c r="E1219" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33362,7 +33362,7 @@
       </c>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33389,7 +33389,7 @@
       </c>
       <c r="E1221" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33416,7 +33416,7 @@
       </c>
       <c r="E1222" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-indf and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33470,7 +33470,7 @@
       </c>
       <c r="E1224" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33497,7 +33497,7 @@
       </c>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33524,7 +33524,7 @@
       </c>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33551,7 +33551,7 @@
       </c>
       <c r="E1227" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33578,7 +33578,7 @@
       </c>
       <c r="E1228" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33632,7 +33632,7 @@
       </c>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33659,7 +33659,7 @@
       </c>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33686,7 +33686,7 @@
       </c>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33713,7 +33713,7 @@
       </c>
       <c r="E1233" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33740,7 +33740,7 @@
       </c>
       <c r="E1234" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33794,7 +33794,7 @@
       </c>
       <c r="E1236" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33821,7 +33821,7 @@
       </c>
       <c r="E1237" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33848,7 +33848,7 @@
       </c>
       <c r="E1238" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="E1239" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33902,7 +33902,7 @@
       </c>
       <c r="E1240" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33956,7 +33956,7 @@
       </c>
       <c r="E1242" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34010,7 +34010,7 @@
       </c>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34118,7 +34118,7 @@
       </c>
       <c r="E1248" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34145,7 +34145,7 @@
       </c>
       <c r="E1249" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34226,7 +34226,7 @@
       </c>
       <c r="E1252" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34253,7 +34253,7 @@
       </c>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34334,7 +34334,7 @@
       </c>
       <c r="E1256" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34361,7 +34361,7 @@
       </c>
       <c r="E1257" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34550,7 +34550,7 @@
       </c>
       <c r="E1264" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34577,7 +34577,7 @@
       </c>
       <c r="E1265" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34604,7 +34604,7 @@
       </c>
       <c r="E1266" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34631,7 +34631,7 @@
       </c>
       <c r="E1267" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34685,7 +34685,7 @@
       </c>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34739,7 +34739,7 @@
       </c>
       <c r="E1271" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34847,7 +34847,7 @@
       </c>
       <c r="E1275" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34874,7 +34874,7 @@
       </c>
       <c r="E1276" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34955,7 +34955,7 @@
       </c>
       <c r="E1279" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34982,7 +34982,7 @@
       </c>
       <c r="E1280" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35063,7 +35063,7 @@
       </c>
       <c r="E1283" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35090,7 +35090,7 @@
       </c>
       <c r="E1284" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35279,7 +35279,7 @@
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35306,7 +35306,7 @@
       </c>
       <c r="E1292" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35333,7 +35333,7 @@
       </c>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35360,7 +35360,7 @@
       </c>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35414,7 +35414,7 @@
       </c>
       <c r="E1296" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35441,7 +35441,7 @@
       </c>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35468,7 +35468,7 @@
       </c>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35495,7 +35495,7 @@
       </c>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35522,7 +35522,7 @@
       </c>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35576,7 +35576,7 @@
       </c>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35603,7 +35603,7 @@
       </c>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35630,7 +35630,7 @@
       </c>
       <c r="E1304" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35657,7 +35657,7 @@
       </c>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35684,7 +35684,7 @@
       </c>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35738,7 +35738,7 @@
       </c>
       <c r="E1308" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35765,7 +35765,7 @@
       </c>
       <c r="E1309" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35792,7 +35792,7 @@
       </c>
       <c r="E1310" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35819,7 +35819,7 @@
       </c>
       <c r="E1311" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35846,7 +35846,7 @@
       </c>
       <c r="E1312" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -36258,7 +36258,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr">
@@ -36278,7 +36278,7 @@
       </c>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36339,7 +36339,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr">
@@ -36359,14 +36359,14 @@
       </c>
       <c r="E1331" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr">
@@ -36386,7 +36386,7 @@
       </c>
       <c r="E1332" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36420,7 +36420,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr">
@@ -36440,7 +36440,7 @@
       </c>
       <c r="E1334" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36501,7 +36501,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr">
@@ -36521,14 +36521,14 @@
       </c>
       <c r="E1337" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr">
@@ -36548,7 +36548,7 @@
       </c>
       <c r="E1338" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36609,7 +36609,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>3pl</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr">
@@ -36629,14 +36629,14 @@
       </c>
       <c r="E1341" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>3pl</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
@@ -36656,7 +36656,7 @@
       </c>
       <c r="E1342" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36690,7 +36690,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>3pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr">
@@ -36710,14 +36710,14 @@
       </c>
       <c r="E1344" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>3pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr">
@@ -36737,7 +36737,7 @@
       </c>
       <c r="E1345" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36798,7 +36798,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>3pl</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr">
@@ -36818,14 +36818,14 @@
       </c>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>3pl</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr">
@@ -36845,7 +36845,7 @@
       </c>
       <c r="E1349" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36879,7 +36879,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>3pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr">
@@ -36899,14 +36899,14 @@
       </c>
       <c r="E1351" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>3pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr">
@@ -36926,7 +36926,7 @@
       </c>
       <c r="E1352" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36953,7 +36953,7 @@
       </c>
       <c r="E1353" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -36980,7 +36980,7 @@
       </c>
       <c r="E1354" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -37007,7 +37007,7 @@
       </c>
       <c r="E1355" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -37034,7 +37034,7 @@
       </c>
       <c r="E1356" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -37061,7 +37061,7 @@
       </c>
       <c r="E1357" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -37088,7 +37088,7 @@
       </c>
       <c r="E1358" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -37115,7 +37115,7 @@
       </c>
       <c r="E1359" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -37142,7 +37142,7 @@
       </c>
       <c r="E1360" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -37871,7 +37871,7 @@
       </c>
       <c r="E1387" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -37898,7 +37898,7 @@
       </c>
       <c r="E1388" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -37925,7 +37925,7 @@
       </c>
       <c r="E1389" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -37952,7 +37952,7 @@
       </c>
       <c r="E1390" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38141,7 +38141,7 @@
       </c>
       <c r="E1397" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38168,7 +38168,7 @@
       </c>
       <c r="E1398" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38222,14 +38222,14 @@
       </c>
       <c r="E1400" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr">
@@ -38249,14 +38249,14 @@
       </c>
       <c r="E1401" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
@@ -38276,7 +38276,7 @@
       </c>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38303,7 +38303,7 @@
       </c>
       <c r="E1403" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38330,7 +38330,7 @@
       </c>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38384,14 +38384,14 @@
       </c>
       <c r="E1406" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
@@ -38411,14 +38411,14 @@
       </c>
       <c r="E1407" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
@@ -38438,7 +38438,7 @@
       </c>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38465,7 +38465,7 @@
       </c>
       <c r="E1409" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38492,7 +38492,7 @@
       </c>
       <c r="E1410" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38546,14 +38546,14 @@
       </c>
       <c r="E1412" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
@@ -38573,14 +38573,14 @@
       </c>
       <c r="E1413" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
@@ -38600,7 +38600,7 @@
       </c>
       <c r="E1414" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38654,7 +38654,7 @@
       </c>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38681,7 +38681,7 @@
       </c>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38735,7 +38735,7 @@
       </c>
       <c r="E1419" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38762,7 +38762,7 @@
       </c>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38985,7 +38985,7 @@
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1429" t="inlineStr">
@@ -39005,7 +39005,7 @@
       </c>
       <c r="E1429" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39032,14 +39032,14 @@
       </c>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
@@ -39059,7 +39059,7 @@
       </c>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39147,7 +39147,7 @@
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
@@ -39167,7 +39167,7 @@
       </c>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39194,14 +39194,14 @@
       </c>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
@@ -39221,7 +39221,7 @@
       </c>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39302,7 +39302,7 @@
       </c>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39329,7 +39329,7 @@
       </c>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39356,7 +39356,7 @@
       </c>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39383,7 +39383,7 @@
       </c>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39410,7 +39410,7 @@
       </c>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39464,7 +39464,7 @@
       </c>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39491,7 +39491,7 @@
       </c>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39518,7 +39518,7 @@
       </c>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39545,7 +39545,7 @@
       </c>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39572,7 +39572,7 @@
       </c>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39795,7 +39795,7 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
@@ -39815,14 +39815,14 @@
       </c>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
@@ -39842,14 +39842,14 @@
       </c>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
@@ -39869,14 +39869,14 @@
       </c>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
@@ -39896,7 +39896,7 @@
       </c>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39957,7 +39957,7 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
@@ -39977,14 +39977,14 @@
       </c>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
@@ -40004,14 +40004,14 @@
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
@@ -40031,14 +40031,14 @@
       </c>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
@@ -40058,7 +40058,7 @@
       </c>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40713,7 +40713,7 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
@@ -40733,7 +40733,7 @@
       </c>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40760,7 +40760,7 @@
       </c>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40787,14 +40787,14 @@
       </c>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
@@ -40814,14 +40814,14 @@
       </c>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
@@ -40841,14 +40841,14 @@
       </c>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
@@ -40868,14 +40868,14 @@
       </c>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
@@ -40895,7 +40895,7 @@
       </c>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40922,7 +40922,7 @@
       </c>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40949,14 +40949,14 @@
       </c>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -40976,14 +40976,14 @@
       </c>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -41003,14 +41003,14 @@
       </c>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -41030,7 +41030,7 @@
       </c>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41327,7 +41327,7 @@
       </c>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41354,7 +41354,7 @@
       </c>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41415,7 +41415,7 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
@@ -41435,14 +41435,14 @@
       </c>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>3pl.ClassC</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
@@ -41462,14 +41462,14 @@
       </c>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
@@ -41489,14 +41489,14 @@
       </c>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
@@ -41516,14 +41516,14 @@
       </c>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
@@ -41543,7 +41543,7 @@
       </c>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41570,14 +41570,14 @@
       </c>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>3pl.ClassA</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
@@ -41597,14 +41597,14 @@
       </c>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassA and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>3pl.ClassA</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
@@ -41624,14 +41624,14 @@
       </c>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassA and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
@@ -41651,14 +41651,14 @@
       </c>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
@@ -41678,14 +41678,14 @@
       </c>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>3sg.ClassC</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
@@ -41705,14 +41705,14 @@
       </c>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
@@ -41732,14 +41732,14 @@
       </c>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
@@ -41759,14 +41759,14 @@
       </c>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
@@ -41786,14 +41786,14 @@
       </c>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>3sg.ClassB</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
@@ -41813,14 +41813,14 @@
       </c>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassB and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
@@ -41840,14 +41840,14 @@
       </c>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>3pl.ClassC</t>
+          <t>3sg.ClassC</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
@@ -41867,7 +41867,7 @@
       </c>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41894,14 +41894,14 @@
       </c>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>3sg.ClassB</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
@@ -41921,14 +41921,14 @@
       </c>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassB and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
@@ -41948,7 +41948,7 @@
       </c>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41975,7 +41975,7 @@
       </c>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42002,7 +42002,7 @@
       </c>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassC and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42029,7 +42029,7 @@
       </c>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42056,7 +42056,7 @@
       </c>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassD and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42083,7 +42083,7 @@
       </c>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassB and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42110,7 +42110,7 @@
       </c>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42137,7 +42137,7 @@
       </c>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassC and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42164,7 +42164,7 @@
       </c>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassA and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42191,7 +42191,7 @@
       </c>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42218,7 +42218,7 @@
       </c>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassD and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42245,7 +42245,7 @@
       </c>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassA and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42272,7 +42272,7 @@
       </c>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42353,7 +42353,7 @@
       </c>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassB and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42380,7 +42380,7 @@
       </c>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42461,7 +42461,7 @@
       </c>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42596,7 +42596,7 @@
       </c>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42657,7 +42657,7 @@
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
@@ -42677,14 +42677,14 @@
       </c>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
@@ -42704,14 +42704,14 @@
       </c>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
@@ -42731,14 +42731,14 @@
       </c>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
@@ -42758,14 +42758,14 @@
       </c>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
@@ -42785,14 +42785,14 @@
       </c>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
@@ -42812,14 +42812,14 @@
       </c>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
@@ -42839,14 +42839,14 @@
       </c>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
@@ -42866,7 +42866,7 @@
       </c>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -42893,7 +42893,7 @@
       </c>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42974,14 +42974,14 @@
       </c>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
@@ -43001,14 +43001,14 @@
       </c>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
@@ -43028,14 +43028,14 @@
       </c>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
@@ -43055,14 +43055,14 @@
       </c>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
@@ -43082,7 +43082,7 @@
       </c>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43109,7 +43109,7 @@
       </c>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43136,14 +43136,14 @@
       </c>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
@@ -43163,14 +43163,14 @@
       </c>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
@@ -43190,14 +43190,14 @@
       </c>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
@@ -43217,14 +43217,14 @@
       </c>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
@@ -43244,14 +43244,14 @@
       </c>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
@@ -43271,14 +43271,14 @@
       </c>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
@@ -43298,7 +43298,7 @@
       </c>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -43325,7 +43325,7 @@
       </c>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43352,14 +43352,14 @@
       </c>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
@@ -43379,14 +43379,14 @@
       </c>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
@@ -43406,7 +43406,7 @@
       </c>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -43433,7 +43433,7 @@
       </c>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43514,7 +43514,7 @@
       </c>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43541,7 +43541,7 @@
       </c>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43568,7 +43568,7 @@
       </c>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43595,7 +43595,7 @@
       </c>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43649,7 +43649,7 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43676,7 +43676,7 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43703,7 +43703,7 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43757,7 +43757,7 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43784,7 +43784,7 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43838,7 +43838,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43892,7 +43892,7 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43919,7 +43919,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43973,7 +43973,7 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44027,7 +44027,7 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44054,7 +44054,7 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44081,7 +44081,7 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44108,7 +44108,7 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44162,7 +44162,7 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44189,7 +44189,7 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44243,7 +44243,7 @@
       </c>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44270,7 +44270,7 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44297,7 +44297,7 @@
       </c>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44324,7 +44324,7 @@
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44378,7 +44378,7 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44405,7 +44405,7 @@
       </c>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44459,7 +44459,7 @@
       </c>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44486,7 +44486,7 @@
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44513,7 +44513,7 @@
       </c>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44540,7 +44540,7 @@
       </c>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44594,7 +44594,7 @@
       </c>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44621,7 +44621,7 @@
       </c>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44675,7 +44675,7 @@
       </c>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44702,7 +44702,7 @@
       </c>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44729,7 +44729,7 @@
       </c>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44756,7 +44756,7 @@
       </c>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44810,7 +44810,7 @@
       </c>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44837,7 +44837,7 @@
       </c>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>

--- a/outputs/alignment-warnings.xlsx
+++ b/outputs/alignment-warnings.xlsx
@@ -665,7 +665,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3905,14 +3905,14 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -3959,14 +3959,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3986,14 +3986,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4013,14 +4013,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4067,14 +4067,14 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4094,14 +4094,14 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4121,14 +4121,14 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4148,14 +4148,14 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4175,14 +4175,14 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4202,14 +4202,14 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4256,14 +4256,14 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4283,14 +4283,14 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4310,14 +4310,14 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4337,14 +4337,14 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -4391,14 +4391,14 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4418,14 +4418,14 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4499,14 +4499,14 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4526,14 +4526,14 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4553,14 +4553,14 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4580,14 +4580,14 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4607,14 +4607,14 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4634,14 +4634,14 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -4688,14 +4688,14 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4715,14 +4715,14 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4742,14 +4742,14 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: cams1241, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -5012,7 +5012,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7874,7 +7874,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8009,7 +8009,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8090,7 +8090,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -8178,7 +8178,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -8198,14 +8198,14 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -8225,14 +8225,14 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -8252,14 +8252,14 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8313,7 +8313,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8360,14 +8360,14 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -8387,14 +8387,14 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -8414,14 +8414,14 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -8441,14 +8441,14 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -8468,14 +8468,14 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -8495,14 +8495,14 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -8522,14 +8522,14 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -8549,14 +8549,14 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -8576,14 +8576,14 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -8603,7 +8603,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -8684,14 +8684,14 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -8711,14 +8711,14 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -8738,14 +8738,14 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -8765,14 +8765,14 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -8792,14 +8792,14 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: coos1249, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: coos1249, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-generic and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-generic and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-spec and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-spec and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-spec and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-generic and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10034,7 +10034,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-spec and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-generic and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10223,7 +10223,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10250,7 +10250,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10277,7 +10277,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10304,7 +10304,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -10790,14 +10790,14 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -10817,14 +10817,14 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -10844,7 +10844,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -10878,7 +10878,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -10898,14 +10898,14 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -10925,14 +10925,14 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -10952,7 +10952,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: djam1255, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -11600,7 +11600,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11735,7 +11735,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11870,7 +11870,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11897,7 +11897,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12005,7 +12005,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12059,7 +12059,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12140,7 +12140,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12167,7 +12167,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12194,7 +12194,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sgHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3plHON and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -13166,7 +13166,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13193,7 +13193,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13409,7 +13409,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13436,7 +13436,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13544,7 +13544,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13571,7 +13571,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13652,7 +13652,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13922,7 +13922,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13949,7 +13949,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -13976,7 +13976,7 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14057,7 +14057,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14084,7 +14084,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14192,7 +14192,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14246,7 +14246,7 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14327,7 +14327,7 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14462,7 +14462,7 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14489,7 +14489,7 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14516,7 +14516,7 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14543,7 +14543,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14570,7 +14570,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14624,7 +14624,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14651,7 +14651,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14678,7 +14678,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14705,7 +14705,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14759,7 +14759,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14786,7 +14786,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14948,7 +14948,7 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -14975,7 +14975,7 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15002,7 +15002,7 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15110,7 +15110,7 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15164,7 +15164,7 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15191,7 +15191,7 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15218,7 +15218,7 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -15272,7 +15272,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -16028,7 +16028,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16055,7 +16055,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16082,7 +16082,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16109,7 +16109,7 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16136,7 +16136,7 @@
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16190,7 +16190,7 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16244,7 +16244,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -16413,7 +16413,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -16433,14 +16433,14 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -16460,14 +16460,14 @@
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -16487,14 +16487,14 @@
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -16514,14 +16514,14 @@
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -16541,14 +16541,14 @@
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -16568,7 +16568,7 @@
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kuna1268, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -16845,7 +16845,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -16865,14 +16865,14 @@
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -16892,14 +16892,14 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -16919,14 +16919,14 @@
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -16946,14 +16946,14 @@
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -16973,14 +16973,14 @@
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -17000,14 +17000,14 @@
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -17027,14 +17027,14 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role A in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -17054,7 +17054,7 @@
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: kwaz1243, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -17243,7 +17243,7 @@
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nonhum and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17270,7 +17270,7 @@
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nonhum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nonhum and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17297,7 +17297,7 @@
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nonhum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17540,7 +17540,7 @@
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17567,7 +17567,7 @@
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17594,7 +17594,7 @@
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17621,7 +17621,7 @@
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17648,7 +17648,7 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17675,7 +17675,7 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17702,7 +17702,7 @@
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17756,7 +17756,7 @@
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17810,7 +17810,7 @@
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17837,7 +17837,7 @@
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17864,7 +17864,7 @@
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17891,7 +17891,7 @@
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17918,7 +17918,7 @@
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17945,7 +17945,7 @@
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17972,7 +17972,7 @@
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -17999,7 +17999,7 @@
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18188,7 +18188,7 @@
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18215,7 +18215,7 @@
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18269,7 +18269,7 @@
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18296,7 +18296,7 @@
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18782,7 +18782,7 @@
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18809,7 +18809,7 @@
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18836,7 +18836,7 @@
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18863,7 +18863,7 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18944,7 +18944,7 @@
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18971,7 +18971,7 @@
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -18998,7 +18998,7 @@
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19025,7 +19025,7 @@
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19052,7 +19052,7 @@
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19086,7 +19086,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -19106,7 +19106,7 @@
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -19140,7 +19140,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -19160,14 +19160,14 @@
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -19187,7 +19187,7 @@
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -19221,7 +19221,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -19241,7 +19241,7 @@
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: miri1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: miri1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -19295,7 +19295,7 @@
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19322,7 +19322,7 @@
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19376,7 +19376,7 @@
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19403,7 +19403,7 @@
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -19754,7 +19754,7 @@
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19781,7 +19781,7 @@
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19808,7 +19808,7 @@
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19835,7 +19835,7 @@
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19862,7 +19862,7 @@
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19889,7 +19889,7 @@
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19916,7 +19916,7 @@
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19943,7 +19943,7 @@
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19970,7 +19970,7 @@
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -19997,7 +19997,7 @@
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20024,7 +20024,7 @@
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20051,7 +20051,7 @@
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20078,7 +20078,7 @@
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20105,7 +20105,7 @@
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20132,7 @@
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20159,7 +20159,7 @@
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20240,7 +20240,7 @@
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20267,7 +20267,7 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20294,7 +20294,7 @@
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20321,7 +20321,7 @@
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20348,7 +20348,7 @@
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20375,7 +20375,7 @@
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20429,7 +20429,7 @@
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20456,7 +20456,7 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20483,7 +20483,7 @@
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20510,7 +20510,7 @@
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20564,7 +20564,7 @@
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.M and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20618,7 +20618,7 @@
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20645,7 +20645,7 @@
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg.M and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20780,7 +20780,7 @@
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20807,7 +20807,7 @@
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20834,7 +20834,7 @@
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20861,7 +20861,7 @@
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20888,7 +20888,7 @@
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -20942,7 +20942,7 @@
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -20969,7 +20969,7 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -20996,7 +20996,7 @@
       </c>
       <c r="E762" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21023,7 +21023,7 @@
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: any and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21050,7 +21050,7 @@
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21077,7 +21077,7 @@
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21104,7 +21104,7 @@
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21131,14 +21131,14 @@
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: any and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -21158,14 +21158,14 @@
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -21185,14 +21185,14 @@
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -21212,7 +21212,7 @@
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21239,7 +21239,7 @@
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21293,7 +21293,7 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21320,7 +21320,7 @@
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21347,7 +21347,7 @@
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21401,7 +21401,7 @@
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -21428,14 +21428,14 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -21455,14 +21455,14 @@
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -21482,7 +21482,7 @@
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21509,7 +21509,7 @@
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21563,7 +21563,7 @@
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21590,7 +21590,7 @@
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21617,7 +21617,7 @@
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21644,14 +21644,14 @@
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -21671,7 +21671,7 @@
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: mund1330, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -21698,7 +21698,7 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21779,7 +21779,7 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21833,7 +21833,7 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -21914,7 +21914,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -22211,7 +22211,7 @@
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nF and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22238,7 +22238,7 @@
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nF and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22292,7 +22292,7 @@
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nF and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22319,7 +22319,7 @@
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nF and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22508,14 +22508,14 @@
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -22535,14 +22535,14 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -22562,7 +22562,7 @@
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -22589,7 +22589,7 @@
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22616,14 +22616,14 @@
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -22643,14 +22643,14 @@
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -22670,7 +22670,7 @@
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -22697,7 +22697,7 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22724,7 +22724,7 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22751,14 +22751,14 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -22778,14 +22778,14 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -22805,14 +22805,14 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22859,14 +22859,14 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -22886,14 +22886,14 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -22913,7 +22913,7 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -22940,7 +22940,7 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -22967,14 +22967,14 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -22994,14 +22994,14 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -23021,7 +23021,7 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -23048,7 +23048,7 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N1 and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -23102,14 +23102,14 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N2 and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -23129,14 +23129,14 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -23156,14 +23156,14 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: ngar1284, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -23784,7 +23784,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -23804,14 +23804,14 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: nort2980, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -23831,14 +23831,14 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: nort2980, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1incl</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -23858,14 +23858,14 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: nort2980, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>1incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -23885,7 +23885,7 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1incl and role P in language: nort2980, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -23966,7 +23966,7 @@
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.nonhum and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -23993,7 +23993,7 @@
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.nonhum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24020,7 +24020,7 @@
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nonhum and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24047,7 +24047,7 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.nonhum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24074,7 +24074,7 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.nonhum and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nonhum and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24101,7 +24101,7 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.nonhum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.nonhum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24506,7 +24506,7 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24533,7 +24533,7 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24560,7 +24560,7 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24587,7 +24587,7 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24641,7 +24641,7 @@
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24695,7 +24695,7 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24722,7 +24722,7 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24749,7 +24749,7 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24776,7 +24776,7 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24803,7 +24803,7 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24857,7 +24857,7 @@
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24911,7 +24911,7 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24938,7 +24938,7 @@
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24965,7 +24965,7 @@
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -24992,7 +24992,7 @@
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25019,7 +25019,7 @@
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25262,7 +25262,7 @@
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25289,7 +25289,7 @@
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25316,7 +25316,7 @@
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25343,7 +25343,7 @@
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25370,7 +25370,7 @@
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25397,7 +25397,7 @@
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25424,7 +25424,7 @@
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25478,7 +25478,7 @@
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.excl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25532,7 +25532,7 @@
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25559,7 +25559,7 @@
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25586,7 +25586,7 @@
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25613,7 +25613,7 @@
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -25640,7 +25640,7 @@
       </c>
       <c r="E934" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -26099,7 +26099,7 @@
       </c>
       <c r="E951" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26126,7 +26126,7 @@
       </c>
       <c r="E952" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26153,7 +26153,7 @@
       </c>
       <c r="E953" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26180,7 +26180,7 @@
       </c>
       <c r="E954" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26261,7 +26261,7 @@
       </c>
       <c r="E957" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26288,7 +26288,7 @@
       </c>
       <c r="E958" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26315,7 +26315,7 @@
       </c>
       <c r="E959" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26342,7 +26342,7 @@
       </c>
       <c r="E960" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26693,7 +26693,7 @@
       </c>
       <c r="E973" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26720,7 +26720,7 @@
       </c>
       <c r="E974" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26747,7 +26747,7 @@
       </c>
       <c r="E975" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26774,7 +26774,7 @@
       </c>
       <c r="E976" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26801,7 +26801,7 @@
       </c>
       <c r="E977" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26828,7 +26828,7 @@
       </c>
       <c r="E978" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26855,7 +26855,7 @@
       </c>
       <c r="E979" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26882,7 +26882,7 @@
       </c>
       <c r="E980" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26909,7 +26909,7 @@
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26963,7 +26963,7 @@
       </c>
       <c r="E983" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -26990,7 +26990,7 @@
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27044,7 +27044,7 @@
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27071,7 +27071,7 @@
       </c>
       <c r="E987" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27098,7 +27098,7 @@
       </c>
       <c r="E988" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27125,7 +27125,7 @@
       </c>
       <c r="E989" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27152,7 +27152,7 @@
       </c>
       <c r="E990" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27179,7 +27179,7 @@
       </c>
       <c r="E991" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27206,7 +27206,7 @@
       </c>
       <c r="E992" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27233,7 +27233,7 @@
       </c>
       <c r="E993" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27260,7 +27260,7 @@
       </c>
       <c r="E994" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27287,7 +27287,7 @@
       </c>
       <c r="E995" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27314,7 +27314,7 @@
       </c>
       <c r="E996" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27341,7 +27341,7 @@
       </c>
       <c r="E997" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27368,7 +27368,7 @@
       </c>
       <c r="E998" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="E999" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1incl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27422,7 +27422,7 @@
       </c>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.F and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27449,7 +27449,7 @@
       </c>
       <c r="E1001" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1excl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27476,7 +27476,7 @@
       </c>
       <c r="E1002" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du.M and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -27557,7 +27557,7 @@
       </c>
       <c r="E1005" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27584,7 +27584,7 @@
       </c>
       <c r="E1006" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27638,7 +27638,7 @@
       </c>
       <c r="E1008" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27665,7 +27665,7 @@
       </c>
       <c r="E1009" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27719,7 +27719,7 @@
       </c>
       <c r="E1011" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2/3M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2/3F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27746,7 +27746,7 @@
       </c>
       <c r="E1012" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2/3F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2/3M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27773,7 +27773,7 @@
       </c>
       <c r="E1013" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2/3M and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2/3F and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27800,7 +27800,7 @@
       </c>
       <c r="E1014" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2/3F and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2/3M and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27881,7 +27881,7 @@
       </c>
       <c r="E1017" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27908,7 +27908,7 @@
       </c>
       <c r="E1018" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27935,7 +27935,7 @@
       </c>
       <c r="E1019" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27962,7 +27962,7 @@
       </c>
       <c r="E1020" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -27989,7 +27989,7 @@
       </c>
       <c r="E1021" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28016,7 +28016,7 @@
       </c>
       <c r="E1022" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28043,7 +28043,7 @@
       </c>
       <c r="E1023" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28070,7 +28070,7 @@
       </c>
       <c r="E1024" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28097,7 +28097,7 @@
       </c>
       <c r="E1025" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28124,7 +28124,7 @@
       </c>
       <c r="E1026" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -28151,7 +28151,7 @@
       </c>
       <c r="E1027" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28178,7 +28178,7 @@
       </c>
       <c r="E1028" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28205,7 +28205,7 @@
       </c>
       <c r="E1029" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28232,7 +28232,7 @@
       </c>
       <c r="E1030" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28259,7 +28259,7 @@
       </c>
       <c r="E1031" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28313,7 +28313,7 @@
       </c>
       <c r="E1033" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28340,7 +28340,7 @@
       </c>
       <c r="E1034" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28367,7 +28367,7 @@
       </c>
       <c r="E1035" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28394,7 +28394,7 @@
       </c>
       <c r="E1036" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28421,7 +28421,7 @@
       </c>
       <c r="E1037" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28448,7 +28448,7 @@
       </c>
       <c r="E1038" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28475,7 +28475,7 @@
       </c>
       <c r="E1039" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28502,7 +28502,7 @@
       </c>
       <c r="E1040" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28556,7 +28556,7 @@
       </c>
       <c r="E1042" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28583,7 +28583,7 @@
       </c>
       <c r="E1043" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -28610,7 +28610,7 @@
       </c>
       <c r="E1044" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -29015,7 +29015,7 @@
       </c>
       <c r="E1059" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29069,7 +29069,7 @@
       </c>
       <c r="E1061" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29096,7 +29096,7 @@
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-high and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 1pl.incl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29123,7 +29123,7 @@
       </c>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29150,7 +29150,7 @@
       </c>
       <c r="E1064" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-high and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29177,7 +29177,7 @@
       </c>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.inanim and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29204,7 +29204,7 @@
       </c>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim.fobv and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.inanim and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29231,7 +29231,7 @@
       </c>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.inanim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29258,7 +29258,7 @@
       </c>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.inanim and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29285,7 +29285,7 @@
       </c>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.inanim and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.anim.fobv and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29312,7 +29312,7 @@
       </c>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.inanim and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim.fobv and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -29339,7 +29339,7 @@
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.anim-low and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.anim-high and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -30068,7 +30068,7 @@
       </c>
       <c r="E1098" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30095,7 +30095,7 @@
       </c>
       <c r="E1099" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30122,7 +30122,7 @@
       </c>
       <c r="E1100" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30149,7 +30149,7 @@
       </c>
       <c r="E1101" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30176,7 +30176,7 @@
       </c>
       <c r="E1102" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30230,7 +30230,7 @@
       </c>
       <c r="E1104" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30257,7 +30257,7 @@
       </c>
       <c r="E1105" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30284,7 +30284,7 @@
       </c>
       <c r="E1106" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30311,7 +30311,7 @@
       </c>
       <c r="E1107" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30338,7 +30338,7 @@
       </c>
       <c r="E1108" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30500,7 +30500,7 @@
       </c>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30527,7 +30527,7 @@
       </c>
       <c r="E1115" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30554,7 +30554,7 @@
       </c>
       <c r="E1116" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30581,7 +30581,7 @@
       </c>
       <c r="E1117" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30608,7 +30608,7 @@
       </c>
       <c r="E1118" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30662,7 +30662,7 @@
       </c>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30689,7 +30689,7 @@
       </c>
       <c r="E1121" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30716,7 +30716,7 @@
       </c>
       <c r="E1122" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30743,7 +30743,7 @@
       </c>
       <c r="E1123" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30770,7 +30770,7 @@
       </c>
       <c r="E1124" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30797,7 +30797,7 @@
       </c>
       <c r="E1125" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30824,7 +30824,7 @@
       </c>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30851,7 +30851,7 @@
       </c>
       <c r="E1127" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30878,7 +30878,7 @@
       </c>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30905,7 +30905,7 @@
       </c>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30932,7 +30932,7 @@
       </c>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -30959,7 +30959,7 @@
       </c>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -31094,7 +31094,7 @@
       </c>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31121,7 +31121,7 @@
       </c>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31148,7 +31148,7 @@
       </c>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31175,7 +31175,7 @@
       </c>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31202,7 +31202,7 @@
       </c>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31229,7 +31229,7 @@
       </c>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31256,7 +31256,7 @@
       </c>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31283,7 +31283,7 @@
       </c>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.hum and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.hum and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31391,7 +31391,7 @@
       </c>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31418,7 +31418,7 @@
       </c>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31472,7 +31472,7 @@
       </c>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31499,7 +31499,7 @@
       </c>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31526,7 +31526,7 @@
       </c>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31553,7 +31553,7 @@
       </c>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31580,7 +31580,7 @@
       </c>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31607,7 +31607,7 @@
       </c>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31661,7 +31661,7 @@
       </c>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31742,7 +31742,7 @@
       </c>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31769,7 +31769,7 @@
       </c>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31796,7 +31796,7 @@
       </c>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31823,7 +31823,7 @@
       </c>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31877,7 +31877,7 @@
       </c>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31904,7 +31904,7 @@
       </c>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31931,7 +31931,7 @@
       </c>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.N and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -31958,7 +31958,7 @@
       </c>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.M/F and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.N and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32471,7 +32471,7 @@
       </c>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32498,7 +32498,7 @@
       </c>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32579,7 +32579,7 @@
       </c>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32606,7 +32606,7 @@
       </c>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32633,7 +32633,7 @@
       </c>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32660,7 +32660,7 @@
       </c>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32687,7 +32687,7 @@
       </c>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32714,7 +32714,7 @@
       </c>
       <c r="E1196" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32741,7 +32741,7 @@
       </c>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32768,7 +32768,7 @@
       </c>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32795,7 +32795,7 @@
       </c>
       <c r="E1199" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32822,7 +32822,7 @@
       </c>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32849,7 +32849,7 @@
       </c>
       <c r="E1201" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32876,7 +32876,7 @@
       </c>
       <c r="E1202" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32903,7 +32903,7 @@
       </c>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32930,7 +32930,7 @@
       </c>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32957,7 +32957,7 @@
       </c>
       <c r="E1205" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -32984,7 +32984,7 @@
       </c>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33065,7 +33065,7 @@
       </c>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33092,7 +33092,7 @@
       </c>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33119,7 +33119,7 @@
       </c>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33146,7 +33146,7 @@
       </c>
       <c r="E1212" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33173,7 +33173,7 @@
       </c>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33200,7 +33200,7 @@
       </c>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-indef and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33227,7 +33227,7 @@
       </c>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33254,7 +33254,7 @@
       </c>
       <c r="E1216" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33281,7 +33281,7 @@
       </c>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33308,7 +33308,7 @@
       </c>
       <c r="E1218" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33335,7 +33335,7 @@
       </c>
       <c r="E1219" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-indef and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33362,7 +33362,7 @@
       </c>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-high-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33389,7 +33389,7 @@
       </c>
       <c r="E1221" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33416,7 +33416,7 @@
       </c>
       <c r="E1222" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low-def and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low-def and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -33443,7 +33443,7 @@
       </c>
       <c r="E1223" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33470,7 +33470,7 @@
       </c>
       <c r="E1224" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33497,7 +33497,7 @@
       </c>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33524,7 +33524,7 @@
       </c>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33551,7 +33551,7 @@
       </c>
       <c r="E1227" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33605,7 +33605,7 @@
       </c>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33632,7 +33632,7 @@
       </c>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33659,7 +33659,7 @@
       </c>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33686,7 +33686,7 @@
       </c>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33713,7 +33713,7 @@
       </c>
       <c r="E1233" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33767,7 +33767,7 @@
       </c>
       <c r="E1235" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33794,7 +33794,7 @@
       </c>
       <c r="E1236" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33821,7 +33821,7 @@
       </c>
       <c r="E1237" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33848,7 +33848,7 @@
       </c>
       <c r="E1238" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="E1239" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33929,7 +33929,7 @@
       </c>
       <c r="E1241" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33956,7 +33956,7 @@
       </c>
       <c r="E1242" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -33983,7 +33983,7 @@
       </c>
       <c r="E1243" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34010,7 +34010,7 @@
       </c>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34037,7 +34037,7 @@
       </c>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34091,7 +34091,7 @@
       </c>
       <c r="E1247" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34118,7 +34118,7 @@
       </c>
       <c r="E1248" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34145,7 +34145,7 @@
       </c>
       <c r="E1249" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34172,7 +34172,7 @@
       </c>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34199,7 +34199,7 @@
       </c>
       <c r="E1251" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34226,7 +34226,7 @@
       </c>
       <c r="E1252" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34253,7 +34253,7 @@
       </c>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34280,7 +34280,7 @@
       </c>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34307,7 +34307,7 @@
       </c>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34334,7 +34334,7 @@
       </c>
       <c r="E1256" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34361,7 +34361,7 @@
       </c>
       <c r="E1257" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34388,7 +34388,7 @@
       </c>
       <c r="E1258" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34415,7 +34415,7 @@
       </c>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34496,7 +34496,7 @@
       </c>
       <c r="E1262" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34523,7 +34523,7 @@
       </c>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34550,7 +34550,7 @@
       </c>
       <c r="E1264" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34577,7 +34577,7 @@
       </c>
       <c r="E1265" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34604,7 +34604,7 @@
       </c>
       <c r="E1266" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34631,7 +34631,7 @@
       </c>
       <c r="E1267" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34658,7 +34658,7 @@
       </c>
       <c r="E1268" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34685,7 +34685,7 @@
       </c>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34712,7 +34712,7 @@
       </c>
       <c r="E1270" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34739,7 +34739,7 @@
       </c>
       <c r="E1271" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34766,7 +34766,7 @@
       </c>
       <c r="E1272" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34820,7 +34820,7 @@
       </c>
       <c r="E1274" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34847,7 +34847,7 @@
       </c>
       <c r="E1275" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34874,7 +34874,7 @@
       </c>
       <c r="E1276" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34901,7 +34901,7 @@
       </c>
       <c r="E1277" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34928,7 +34928,7 @@
       </c>
       <c r="E1278" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34955,7 +34955,7 @@
       </c>
       <c r="E1279" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -34982,7 +34982,7 @@
       </c>
       <c r="E1280" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35009,7 +35009,7 @@
       </c>
       <c r="E1281" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35036,7 +35036,7 @@
       </c>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35063,7 +35063,7 @@
       </c>
       <c r="E1283" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35090,7 +35090,7 @@
       </c>
       <c r="E1284" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35117,7 +35117,7 @@
       </c>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35144,7 +35144,7 @@
       </c>
       <c r="E1286" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35225,7 +35225,7 @@
       </c>
       <c r="E1289" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35252,7 +35252,7 @@
       </c>
       <c r="E1290" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35279,7 +35279,7 @@
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35306,7 +35306,7 @@
       </c>
       <c r="E1292" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35333,7 +35333,7 @@
       </c>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: A (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: A (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35360,7 +35360,7 @@
       </c>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3du and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -35387,7 +35387,7 @@
       </c>
       <c r="E1295" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35414,7 +35414,7 @@
       </c>
       <c r="E1296" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35441,7 +35441,7 @@
       </c>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35468,7 +35468,7 @@
       </c>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35495,7 +35495,7 @@
       </c>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35549,7 +35549,7 @@
       </c>
       <c r="E1301" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35576,7 +35576,7 @@
       </c>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35603,7 +35603,7 @@
       </c>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35630,7 +35630,7 @@
       </c>
       <c r="E1304" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35657,7 +35657,7 @@
       </c>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35711,7 +35711,7 @@
       </c>
       <c r="E1307" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35738,7 +35738,7 @@
       </c>
       <c r="E1308" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35765,7 +35765,7 @@
       </c>
       <c r="E1309" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35792,7 +35792,7 @@
       </c>
       <c r="E1310" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -35819,7 +35819,7 @@
       </c>
       <c r="E1311" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -36231,7 +36231,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr">
@@ -36251,14 +36251,14 @@
       </c>
       <c r="E1327" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr">
@@ -36278,7 +36278,7 @@
       </c>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36339,7 +36339,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr">
@@ -36359,14 +36359,14 @@
       </c>
       <c r="E1331" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr">
@@ -36386,14 +36386,14 @@
       </c>
       <c r="E1332" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr">
@@ -36413,14 +36413,14 @@
       </c>
       <c r="E1333" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>1pl.incl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr">
@@ -36440,7 +36440,7 @@
       </c>
       <c r="E1334" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36501,7 +36501,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr">
@@ -36521,14 +36521,14 @@
       </c>
       <c r="E1337" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.incl</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr">
@@ -36548,14 +36548,14 @@
       </c>
       <c r="E1338" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.incl and role P in language: tusc1257, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr">
@@ -36575,14 +36575,14 @@
       </c>
       <c r="E1339" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>3pl</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr">
@@ -36602,7 +36602,7 @@
       </c>
       <c r="E1340" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36629,14 +36629,14 @@
       </c>
       <c r="E1341" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>3pl</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
@@ -36656,14 +36656,14 @@
       </c>
       <c r="E1342" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr">
@@ -36683,7 +36683,7 @@
       </c>
       <c r="E1343" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36744,7 +36744,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr">
@@ -36764,14 +36764,14 @@
       </c>
       <c r="E1346" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>3pl</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr">
@@ -36791,7 +36791,7 @@
       </c>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -36818,14 +36818,14 @@
       </c>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>3pl</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr">
@@ -36845,14 +36845,14 @@
       </c>
       <c r="E1349" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr">
@@ -36872,7 +36872,7 @@
       </c>
       <c r="E1350" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: wage1238, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: wage1238, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38141,7 +38141,7 @@
       </c>
       <c r="E1397" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38175,7 +38175,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr">
@@ -38195,7 +38195,7 @@
       </c>
       <c r="E1399" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38222,7 +38222,7 @@
       </c>
       <c r="E1400" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38256,7 +38256,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
@@ -38276,7 +38276,7 @@
       </c>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38303,7 +38303,7 @@
       </c>
       <c r="E1403" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38337,7 +38337,7 @@
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1405" t="inlineStr">
@@ -38357,7 +38357,7 @@
       </c>
       <c r="E1405" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38384,7 +38384,7 @@
       </c>
       <c r="E1406" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38418,7 +38418,7 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
@@ -38438,7 +38438,7 @@
       </c>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38465,7 +38465,7 @@
       </c>
       <c r="E1409" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38499,7 +38499,7 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1du.incl</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr">
@@ -38519,7 +38519,7 @@
       </c>
       <c r="E1411" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-low and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -38546,7 +38546,7 @@
       </c>
       <c r="E1412" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38580,7 +38580,7 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>1du.incl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
@@ -38600,7 +38600,7 @@
       </c>
       <c r="E1414" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1du.incl and role A in language: wich1260, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl-high and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -38654,7 +38654,7 @@
       </c>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38681,7 +38681,7 @@
       </c>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38735,7 +38735,7 @@
       </c>
       <c r="E1419" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38762,7 +38762,7 @@
       </c>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2 and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3 and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -38931,7 +38931,7 @@
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1427" t="inlineStr">
@@ -38951,14 +38951,14 @@
       </c>
       <c r="E1427" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1428" t="inlineStr">
@@ -38978,14 +38978,14 @@
       </c>
       <c r="E1428" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1429" t="inlineStr">
@@ -39005,14 +39005,14 @@
       </c>
       <c r="E1429" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
@@ -39032,14 +39032,14 @@
       </c>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
@@ -39059,14 +39059,14 @@
       </c>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
@@ -39086,14 +39086,14 @@
       </c>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
@@ -39113,14 +39113,14 @@
       </c>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
@@ -39140,14 +39140,14 @@
       </c>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
@@ -39167,14 +39167,14 @@
       </c>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
@@ -39194,14 +39194,14 @@
       </c>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
@@ -39221,14 +39221,14 @@
       </c>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
@@ -39248,7 +39248,7 @@
       </c>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: yana1271, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39275,7 +39275,7 @@
       </c>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39302,7 +39302,7 @@
       </c>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39329,7 +39329,7 @@
       </c>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39356,7 +39356,7 @@
       </c>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39383,7 +39383,7 @@
       </c>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39437,7 +39437,7 @@
       </c>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39464,7 +39464,7 @@
       </c>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39491,7 +39491,7 @@
       </c>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39518,7 +39518,7 @@
       </c>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39545,7 +39545,7 @@
       </c>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -39741,7 +39741,7 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
@@ -39761,14 +39761,14 @@
       </c>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
@@ -39788,14 +39788,14 @@
       </c>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
@@ -39815,14 +39815,14 @@
       </c>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
@@ -39842,7 +39842,7 @@
       </c>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -39903,7 +39903,7 @@
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
@@ -39923,14 +39923,14 @@
       </c>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
@@ -39950,14 +39950,14 @@
       </c>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
@@ -39977,14 +39977,14 @@
       </c>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
@@ -40004,7 +40004,7 @@
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: yecu1235, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40713,7 +40713,7 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
@@ -40733,14 +40733,14 @@
       </c>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
@@ -40760,7 +40760,7 @@
       </c>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40787,14 +40787,14 @@
       </c>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
@@ -40814,14 +40814,14 @@
       </c>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
@@ -40841,7 +40841,7 @@
       </c>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40875,7 +40875,7 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
@@ -40895,14 +40895,14 @@
       </c>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>1pl.excl</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
@@ -40922,7 +40922,7 @@
       </c>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -40949,14 +40949,14 @@
       </c>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role S in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -40976,14 +40976,14 @@
       </c>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>1pl.excl</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -41003,7 +41003,7 @@
       </c>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: swam1239, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl.excl and role P in language: swam1239, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -41037,7 +41037,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -41057,14 +41057,14 @@
       </c>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -41084,14 +41084,14 @@
       </c>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
@@ -41111,14 +41111,14 @@
       </c>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
@@ -41138,14 +41138,14 @@
       </c>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
@@ -41165,14 +41165,14 @@
       </c>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
@@ -41192,14 +41192,14 @@
       </c>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
@@ -41219,14 +41219,14 @@
       </c>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.inanim and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
@@ -41246,14 +41246,14 @@
       </c>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
@@ -41273,14 +41273,14 @@
       </c>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.anim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
@@ -41300,7 +41300,7 @@
       </c>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: lako1247, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.inanim and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41327,7 +41327,7 @@
       </c>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41354,7 +41354,7 @@
       </c>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41442,7 +41442,7 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>3pl.ClassC</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
@@ -41462,7 +41462,7 @@
       </c>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41489,14 +41489,14 @@
       </c>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassB and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
@@ -41516,14 +41516,14 @@
       </c>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
@@ -41543,14 +41543,14 @@
       </c>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.ClassB and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
@@ -41570,14 +41570,14 @@
       </c>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>2du</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
@@ -41597,14 +41597,14 @@
       </c>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>3pl.ClassA</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
@@ -41624,7 +41624,7 @@
       </c>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassA and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du.ClassC and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41651,7 +41651,7 @@
       </c>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41678,14 +41678,14 @@
       </c>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassD and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
@@ -41705,14 +41705,14 @@
       </c>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
@@ -41732,14 +41732,14 @@
       </c>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
@@ -41759,14 +41759,14 @@
       </c>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
@@ -41786,14 +41786,14 @@
       </c>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du.ClassD and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>3sg.ClassB</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
@@ -41813,7 +41813,7 @@
       </c>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassB and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41840,14 +41840,14 @@
       </c>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3du.ClassA and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>3sg.ClassC</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
@@ -41867,7 +41867,7 @@
       </c>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3du.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -41901,7 +41901,7 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
@@ -41921,14 +41921,14 @@
       </c>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
@@ -41948,14 +41948,14 @@
       </c>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
@@ -41975,14 +41975,14 @@
       </c>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
@@ -42002,14 +42002,14 @@
       </c>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassC and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>3pl.ClassA</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
@@ -42029,7 +42029,7 @@
       </c>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassA and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -42056,7 +42056,7 @@
       </c>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42083,7 +42083,7 @@
       </c>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassB and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassA and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42110,14 +42110,14 @@
       </c>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassD and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>3sg.ClassB</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
@@ -42137,7 +42137,7 @@
       </c>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassB and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -42164,14 +42164,14 @@
       </c>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassA and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
@@ -42191,14 +42191,14 @@
       </c>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2du</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
@@ -42218,14 +42218,14 @@
       </c>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassD and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2du and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
@@ -42245,14 +42245,14 @@
       </c>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
@@ -42272,14 +42272,14 @@
       </c>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassA and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>3pl.ClassC</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
@@ -42299,7 +42299,7 @@
       </c>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassD and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3pl.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -42326,14 +42326,14 @@
       </c>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl.ClassD and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
@@ -42353,14 +42353,14 @@
       </c>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
@@ -42380,14 +42380,14 @@
       </c>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>3sg.ClassC</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
@@ -42407,7 +42407,7 @@
       </c>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassB and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 3sg.ClassC and role A in language: kiow1266, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -42434,7 +42434,7 @@
       </c>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3du.ClassB and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg.ClassC and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42461,7 +42461,7 @@
       </c>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42488,7 +42488,7 @@
       </c>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42542,7 +42542,7 @@
       </c>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42569,7 +42569,7 @@
       </c>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42603,7 +42603,7 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
@@ -42623,14 +42623,14 @@
       </c>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
@@ -42650,7 +42650,7 @@
       </c>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -42711,7 +42711,7 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
@@ -42731,14 +42731,14 @@
       </c>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
@@ -42758,14 +42758,14 @@
       </c>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
@@ -42785,14 +42785,14 @@
       </c>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
@@ -42812,7 +42812,7 @@
       </c>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -42893,7 +42893,7 @@
       </c>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -42947,7 +42947,7 @@
       </c>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43001,7 +43001,7 @@
       </c>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43028,7 +43028,7 @@
       </c>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43055,7 +43055,7 @@
       </c>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43082,7 +43082,7 @@
       </c>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43109,7 +43109,7 @@
       </c>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43136,14 +43136,14 @@
       </c>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
@@ -43163,14 +43163,14 @@
       </c>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>1pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
@@ -43190,14 +43190,14 @@
       </c>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
@@ -43217,14 +43217,14 @@
       </c>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>2pl</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
@@ -43244,14 +43244,14 @@
       </c>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
@@ -43271,14 +43271,14 @@
       </c>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>2sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
@@ -43298,7 +43298,7 @@
       </c>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43325,7 +43325,7 @@
       </c>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43352,14 +43352,14 @@
       </c>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
@@ -43379,14 +43379,14 @@
       </c>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>1sg</t>
+          <t>Verb</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
@@ -43406,7 +43406,7 @@
       </c>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
+          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43433,14 +43433,14 @@
       </c>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
@@ -43460,14 +43460,14 @@
       </c>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2sg</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
@@ -43487,14 +43487,14 @@
       </c>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
@@ -43514,14 +43514,14 @@
       </c>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>2pl</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
@@ -43541,7 +43541,7 @@
       </c>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 2pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -43568,7 +43568,7 @@
       </c>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
@@ -43595,14 +43595,14 @@
       </c>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
@@ -43622,14 +43622,14 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1pl</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
@@ -43649,14 +43649,14 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1pl and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
@@ -43676,14 +43676,14 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: P (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role A in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>Verb</t>
+          <t>1sg</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
@@ -43703,7 +43703,7 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: A (INFERRED_NULL_zero)</t>
+          <t>WARNING: More possible coarguments than referential types found for reference 1sg and role P in language: nucl1302, this is probably due to one or more monoexponential plurals</t>
         </is>
       </c>
     </row>
@@ -43730,7 +43730,7 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43811,7 +43811,7 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43865,7 +43865,7 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -43946,7 +43946,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: P (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: P (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44000,7 +44000,7 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44027,7 +44027,7 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44054,7 +44054,7 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44081,7 +44081,7 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44108,7 +44108,7 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44135,7 +44135,7 @@
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44162,7 +44162,7 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44216,7 +44216,7 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44243,7 +44243,7 @@
       </c>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44270,7 +44270,7 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44297,7 +44297,7 @@
       </c>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44324,7 +44324,7 @@
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44351,7 +44351,7 @@
       </c>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44378,7 +44378,7 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44432,7 +44432,7 @@
       </c>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44459,7 +44459,7 @@
       </c>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44486,7 +44486,7 @@
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44513,7 +44513,7 @@
       </c>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44540,7 +44540,7 @@
       </c>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44567,7 +44567,7 @@
       </c>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44594,7 +44594,7 @@
       </c>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44648,7 +44648,7 @@
       </c>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44675,7 +44675,7 @@
       </c>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44702,7 +44702,7 @@
       </c>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44729,7 +44729,7 @@
       </c>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg.FAM.F and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 2sg.FAM.M and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44756,7 +44756,7 @@
       </c>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2pl and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44783,7 +44783,7 @@
       </c>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 2sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
@@ -44810,7 +44810,7 @@
       </c>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>language has an inferred gap at reference: 3sg and Role: S (ROLE_NOT_MARKED_zero)</t>
+          <t>language has an inferred gap at reference: 1pl and Role: S (ROLE_NOT_MARKED_zero)</t>
         </is>
       </c>
     </row>
